--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.6666665555555741</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02469135787227557</v>
+        <v>0.03614457809551459</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="I2" t="n">
-        <v>10.96296296296296</v>
+        <v>9.637521514629949</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="K2" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L2" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M2" t="n">
-        <v>2.376543209876543</v>
+        <v>2.289156626506024</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>7.339506172839506</v>
+        <v>7.066265060240964</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1764705778546719</v>
+        <v>0.2999999850000007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04086538451715052</v>
+        <v>0.04728132376529238</v>
       </c>
       <c r="G3" t="n">
-        <v>11.55555555555556</v>
+        <v>10.84615384615385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3413461538461539</v>
+        <v>0.3380614657210402</v>
       </c>
       <c r="I3" t="n">
-        <v>4.758760683760683</v>
+        <v>4.473686124749955</v>
       </c>
       <c r="J3" t="n">
-        <v>11.55555555555556</v>
+        <v>10.84615384615385</v>
       </c>
       <c r="K3" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L3" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M3" t="n">
-        <v>2.235576923076923</v>
+        <v>2.236406619385343</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>6.822115384615385</v>
+        <v>6.801418439716312</v>
       </c>
     </row>
     <row r="4">
@@ -624,43 +624,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5384614970414233</v>
+        <v>0.636363578512402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07065217352906428</v>
+        <v>0.05789473653739612</v>
       </c>
       <c r="G4" t="n">
-        <v>16.72727272727273</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3152173913043478</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="I4" t="n">
-        <v>6.81699604743083</v>
+        <v>6.472280701754386</v>
       </c>
       <c r="J4" t="n">
-        <v>16.72727272727273</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L4" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M4" t="n">
-        <v>2.173913043478261</v>
+        <v>2.236842105263158</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>6.902173913043478</v>
+        <v>7.042105263157895</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3529411660899657</v>
+        <v>0.2972972892622354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08095238075963719</v>
+        <v>0.08767772491071629</v>
       </c>
       <c r="G5" t="n">
-        <v>14.48275862068965</v>
+        <v>14.55172413793103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5523809523809524</v>
+        <v>0.533175355450237</v>
       </c>
       <c r="I5" t="n">
-        <v>6.014055829228243</v>
+        <v>6.033959797352509</v>
       </c>
       <c r="J5" t="n">
-        <v>14.48275862068965</v>
+        <v>14.55172413793103</v>
       </c>
       <c r="K5" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L5" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M5" t="n">
-        <v>2.692857142857143</v>
+        <v>2.64218009478673</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>7.842857142857143</v>
+        <v>7.732227488151659</v>
       </c>
     </row>
     <row r="6">
@@ -735,34 +735,34 @@
         <v>0.599999880000024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02631578933518006</v>
+        <v>0.02525252512498725</v>
       </c>
       <c r="G6" t="n">
-        <v>17.27272727272727</v>
+        <v>16.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="I6" t="n">
-        <v>7.066985645933015</v>
+        <v>6.739393939393939</v>
       </c>
       <c r="J6" t="n">
-        <v>17.27272727272727</v>
+        <v>16.5</v>
       </c>
       <c r="K6" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L6" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.378947368421052</v>
+        <v>2.262626262626263</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>7.031578947368421</v>
+        <v>6.737373737373737</v>
       </c>
     </row>
     <row r="7">
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99999980000004</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02906976727285019</v>
+        <v>0.02614379067879875</v>
       </c>
       <c r="G7" t="n">
-        <v>28.66666666666667</v>
+        <v>15.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4244186046511628</v>
+        <v>0.3856209150326798</v>
       </c>
       <c r="I7" t="n">
-        <v>11.63643410852713</v>
+        <v>6.274248366013072</v>
       </c>
       <c r="J7" t="n">
-        <v>28.66666666666667</v>
+        <v>15.3</v>
       </c>
       <c r="K7" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L7" t="n">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M7" t="n">
-        <v>2.372093023255814</v>
+        <v>2.261437908496732</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>7.27906976744186</v>
+        <v>7.111111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -828,43 +828,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2222222098765439</v>
+        <v>0.1764705778546719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04128440357503577</v>
+        <v>0.03999999990588236</v>
       </c>
       <c r="G8" t="n">
-        <v>11.78378378378378</v>
+        <v>11.48648648648649</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3256880733944954</v>
+        <v>0.3247058823529412</v>
       </c>
       <c r="I8" t="n">
-        <v>4.843788742871312</v>
+        <v>4.724476947535771</v>
       </c>
       <c r="J8" t="n">
-        <v>11.78378378378378</v>
+        <v>11.48648648648649</v>
       </c>
       <c r="K8" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L8" t="n">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M8" t="n">
-        <v>2.192660550458716</v>
+        <v>2.207058823529412</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>6.743119266055046</v>
+        <v>6.75764705882353</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6923076390532585</v>
+        <v>0.7142856632653098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07103825097793305</v>
+        <v>0.07446808471027615</v>
       </c>
       <c r="G9" t="n">
-        <v>22.875</v>
+        <v>18.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="I9" t="n">
-        <v>9.283333333333333</v>
+        <v>7.651914893617022</v>
       </c>
       <c r="J9" t="n">
-        <v>22.875</v>
+        <v>18.8</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M9" t="n">
-        <v>2.207650273224044</v>
+        <v>2.159574468085106</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>6.939890710382514</v>
+        <v>6.909574468085107</v>
       </c>
     </row>
     <row r="10">
@@ -930,43 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4054053944485029</v>
+        <v>0.2820512748191981</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08705882332456748</v>
+        <v>0.0935251796318341</v>
       </c>
       <c r="G10" t="n">
-        <v>14.16666666666667</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.548235294117647</v>
+        <v>0.5611510791366906</v>
       </c>
       <c r="I10" t="n">
-        <v>5.885960784313726</v>
+        <v>6.402238209432454</v>
       </c>
       <c r="J10" t="n">
-        <v>14.16666666666667</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L10" t="n">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M10" t="n">
-        <v>2.68</v>
+        <v>2.709832134292566</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>7.830588235294118</v>
+        <v>7.892086330935252</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.424657528429349</v>
+        <v>0.4285714230055659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06715731364566944</v>
+        <v>0.0700636942037637</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94505494505495</v>
+        <v>12.21111111111111</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5105795768169273</v>
+        <v>0.5077343039126478</v>
       </c>
       <c r="I11" t="n">
-        <v>4.982253808748749</v>
+        <v>5.087538166009503</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94505494505495</v>
+        <v>12.21111111111111</v>
       </c>
       <c r="K11" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L11" t="n">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="M11" t="n">
-        <v>2.583256669733211</v>
+        <v>2.575978161965423</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>7.678012879484821</v>
+        <v>7.647861692447679</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5199999792000009</v>
+        <v>0.5555555349794246</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07645259915457921</v>
+        <v>0.08282208563551507</v>
       </c>
       <c r="G12" t="n">
-        <v>14.21739130434783</v>
+        <v>14.17391304347826</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4831804281345566</v>
+        <v>0.5184049079754601</v>
       </c>
       <c r="I12" t="n">
-        <v>5.880228692992953</v>
+        <v>5.87692718058149</v>
       </c>
       <c r="J12" t="n">
-        <v>14.21739130434783</v>
+        <v>14.17391304347826</v>
       </c>
       <c r="K12" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L12" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M12" t="n">
-        <v>2.596330275229358</v>
+        <v>2.641104294478528</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>7.608562691131499</v>
+        <v>7.745398773006135</v>
       </c>
     </row>
     <row r="13">
@@ -1098,28 +1098,28 @@
         <v>15.03571428571429</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5391923990498813</v>
+        <v>0.5296912114014252</v>
       </c>
       <c r="I13" t="n">
-        <v>6.229962673905668</v>
+        <v>6.226162198846286</v>
       </c>
       <c r="J13" t="n">
         <v>15.03571428571429</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L13" t="n">
         <v>421</v>
       </c>
       <c r="M13" t="n">
-        <v>2.681710213776722</v>
+        <v>2.653206650831354</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>7.831353919239905</v>
+        <v>7.771971496437055</v>
       </c>
     </row>
     <row r="14">
@@ -1134,43 +1134,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.64285711989796</v>
+        <v>0.5999999800000007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09589041063051229</v>
+        <v>0.1003344478249684</v>
       </c>
       <c r="G14" t="n">
-        <v>14.6</v>
+        <v>15.73684210526316</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4691780821917808</v>
+        <v>0.451505016722408</v>
       </c>
       <c r="I14" t="n">
-        <v>6.027671232876712</v>
+        <v>6.475338848794227</v>
       </c>
       <c r="J14" t="n">
-        <v>14.6</v>
+        <v>15.73684210526316</v>
       </c>
       <c r="K14" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M14" t="n">
-        <v>2.554794520547945</v>
+        <v>2.51505016722408</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>7.784246575342466</v>
+        <v>7.638795986622074</v>
       </c>
     </row>
     <row r="15">
@@ -1194,34 +1194,34 @@
         <v>0.4285714081632663</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07581227409454053</v>
+        <v>0.07608695624606175</v>
       </c>
       <c r="G15" t="n">
-        <v>15.38888888888889</v>
+        <v>17.25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5234657039711191</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="I15" t="n">
-        <v>6.364941837144004</v>
+        <v>7.11304347826087</v>
       </c>
       <c r="J15" t="n">
-        <v>15.38888888888889</v>
+        <v>17.25</v>
       </c>
       <c r="K15" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L15" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M15" t="n">
-        <v>2.613718411552346</v>
+        <v>2.652173913043478</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>7.805054151624549</v>
+        <v>7.876811594202898</v>
       </c>
     </row>
     <row r="16">
@@ -1239,40 +1239,40 @@
         <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4457831271592395</v>
+        <v>0.4285714234693878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1002415457726551</v>
+        <v>0.1019417474490998</v>
       </c>
       <c r="G16" t="n">
-        <v>12.17647058823529</v>
+        <v>12.29850746268657</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4577294685990338</v>
+        <v>0.4648058252427185</v>
       </c>
       <c r="I16" t="n">
-        <v>5.053680022733731</v>
+        <v>5.105325315171715</v>
       </c>
       <c r="J16" t="n">
-        <v>12.17647058823529</v>
+        <v>12.29850746268657</v>
       </c>
       <c r="K16" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L16" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="M16" t="n">
-        <v>2.556763285024155</v>
+        <v>2.574029126213592</v>
       </c>
       <c r="N16" t="n">
         <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>7.731884057971015</v>
+        <v>7.760922330097087</v>
       </c>
     </row>
     <row r="17">
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.599999940000006</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04784688972322063</v>
+        <v>0.03255813938345051</v>
       </c>
       <c r="G17" t="n">
-        <v>14.92857142857143</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4019138755980861</v>
+        <v>0.413953488372093</v>
       </c>
       <c r="I17" t="n">
-        <v>6.132194121667807</v>
+        <v>5.898914728682171</v>
       </c>
       <c r="J17" t="n">
-        <v>14.92857142857143</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L17" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M17" t="n">
-        <v>2.406698564593301</v>
+        <v>2.432558139534884</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>7.263157894736842</v>
+        <v>7.274418604651163</v>
       </c>
     </row>
     <row r="18">
@@ -1338,43 +1338,43 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7391304187145562</v>
+        <v>0.7199999856000003</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0848708485518988</v>
+        <v>0.0919117645369269</v>
       </c>
       <c r="G18" t="n">
-        <v>14.64864864864865</v>
+        <v>14.7027027027027</v>
       </c>
       <c r="H18" t="n">
-        <v>0.533210332103321</v>
+        <v>0.5404411764705882</v>
       </c>
       <c r="I18" t="n">
-        <v>6.072743592300789</v>
+        <v>6.097257551669317</v>
       </c>
       <c r="J18" t="n">
-        <v>14.64864864864865</v>
+        <v>14.7027027027027</v>
       </c>
       <c r="K18" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L18" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M18" t="n">
-        <v>2.677121771217712</v>
+        <v>2.681985294117647</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>7.85239852398524</v>
+        <v>7.887867647058823</v>
       </c>
     </row>
     <row r="19">
@@ -1389,43 +1389,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2499999687500039</v>
+        <v>0.199999980000002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04733727782640664</v>
+        <v>0.06410256369165024</v>
       </c>
       <c r="G19" t="n">
-        <v>16.9</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4319526627218935</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="I19" t="n">
-        <v>6.932781065088758</v>
+        <v>5.374358974358975</v>
       </c>
       <c r="J19" t="n">
-        <v>16.9</v>
+        <v>13</v>
       </c>
       <c r="K19" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L19" t="n">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>2.420118343195266</v>
+        <v>2.442307692307693</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>7.36094674556213</v>
+        <v>7.493589743589744</v>
       </c>
     </row>
     <row r="20">
@@ -1440,43 +1440,43 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4999999750000012</v>
+        <v>0.6190475895691624</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07604562708727898</v>
+        <v>0.07608695624606175</v>
       </c>
       <c r="G20" t="n">
-        <v>17.53333333333333</v>
+        <v>18.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4372623574144487</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="I20" t="n">
-        <v>7.188238276299113</v>
+        <v>7.536811594202899</v>
       </c>
       <c r="J20" t="n">
-        <v>17.53333333333333</v>
+        <v>18.4</v>
       </c>
       <c r="K20" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L20" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M20" t="n">
-        <v>2.494296577946768</v>
+        <v>2.485507246376812</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>7.20532319391635</v>
+        <v>7.144927536231884</v>
       </c>
     </row>
     <row r="21">
@@ -1491,43 +1491,43 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5833333090277788</v>
+        <v>0.4999999821428577</v>
       </c>
       <c r="F21" t="n">
-        <v>0.095999999616</v>
+        <v>0.1098039211380238</v>
       </c>
       <c r="G21" t="n">
-        <v>15.625</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.452</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="I21" t="n">
-        <v>6.430800000000001</v>
+        <v>5.850196078431373</v>
       </c>
       <c r="J21" t="n">
-        <v>15.625</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L21" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M21" t="n">
-        <v>2.472</v>
+        <v>2.474509803921569</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>7.164</v>
+        <v>7.211764705882353</v>
       </c>
     </row>
     <row r="22">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.636363578512402</v>
+        <v>0.7499999531250029</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05140186891868286</v>
+        <v>0.0720720717474231</v>
       </c>
       <c r="G22" t="n">
-        <v>9.727272727272727</v>
+        <v>9.652173913043478</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3598130841121495</v>
+        <v>0.3738738738738739</v>
       </c>
       <c r="I22" t="n">
-        <v>4.034834324553951</v>
+        <v>4.010419114766941</v>
       </c>
       <c r="J22" t="n">
-        <v>9.727272727272727</v>
+        <v>9.652173913043478</v>
       </c>
       <c r="K22" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L22" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
-        <v>2.33177570093458</v>
+        <v>2.382882882882883</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>6.934579439252336</v>
+        <v>7.09009009009009</v>
       </c>
     </row>
     <row r="23">
@@ -1593,43 +1593,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7142856632653098</v>
+        <v>0.5384614970414233</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05957446783159801</v>
+        <v>0.051999999792</v>
       </c>
       <c r="G23" t="n">
-        <v>9.791666666666666</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5361702127659574</v>
+        <v>0.484</v>
       </c>
       <c r="I23" t="n">
-        <v>4.131134751773049</v>
+        <v>4.739054545454546</v>
       </c>
       <c r="J23" t="n">
-        <v>9.791666666666666</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="K23" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L23" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
-        <v>2.659574468085106</v>
+        <v>2.604</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>7.880851063829788</v>
+        <v>7.628</v>
       </c>
     </row>
     <row r="24">
@@ -1647,40 +1647,40 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6923076390532585</v>
+        <v>0.5714285306122479</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05627705603343266</v>
+        <v>0.06222222194567902</v>
       </c>
       <c r="G24" t="n">
-        <v>10.5</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.36</v>
       </c>
       <c r="I24" t="n">
-        <v>4.357575757575758</v>
+        <v>4.057043478260869</v>
       </c>
       <c r="J24" t="n">
-        <v>10.5</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="K24" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L24" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
-        <v>2.380952380952381</v>
+        <v>2.302222222222222</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>7.402597402597403</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="25">
@@ -1695,43 +1695,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8823528892733594</v>
+        <v>0.8095237709750585</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07264957233910439</v>
+        <v>0.08823529374691053</v>
       </c>
       <c r="G25" t="n">
-        <v>10.17391304347826</v>
+        <v>9.52</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4453781512605042</v>
       </c>
       <c r="I25" t="n">
-        <v>4.233667781493869</v>
+        <v>3.986151260504202</v>
       </c>
       <c r="J25" t="n">
-        <v>10.17391304347826</v>
+        <v>9.52</v>
       </c>
       <c r="K25" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L25" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
-        <v>2.452991452991453</v>
+        <v>2.491596638655462</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>7.542735042735043</v>
+        <v>7.550420168067227</v>
       </c>
     </row>
     <row r="26">
@@ -1749,40 +1749,40 @@
         <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8260869206049165</v>
+        <v>0.7499999687500013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09999999956521739</v>
+        <v>0.09836065533458747</v>
       </c>
       <c r="G26" t="n">
-        <v>8.846153846153847</v>
+        <v>11.09090909090909</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4173913043478261</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="I26" t="n">
-        <v>3.705418060200669</v>
+        <v>4.603576751117735</v>
       </c>
       <c r="J26" t="n">
-        <v>8.846153846153847</v>
+        <v>11.09090909090909</v>
       </c>
       <c r="K26" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L26" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
-        <v>2.482608695652174</v>
+        <v>2.463114754098361</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>7.621739130434783</v>
+        <v>7.557377049180328</v>
       </c>
     </row>
     <row r="27">
@@ -1800,40 +1800,40 @@
         <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2499999895833337</v>
+        <v>0.1999999920000003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09411764668973471</v>
+        <v>0.098039215301807</v>
       </c>
       <c r="G27" t="n">
         <v>11.08695652173913</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4588235294117647</v>
+        <v>0.4274509803921568</v>
       </c>
       <c r="I27" t="n">
-        <v>4.618312020460358</v>
+        <v>4.605763000852515</v>
       </c>
       <c r="J27" t="n">
         <v>11.08695652173913</v>
       </c>
       <c r="K27" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L27" t="n">
         <v>255</v>
       </c>
       <c r="M27" t="n">
-        <v>2.533333333333333</v>
+        <v>2.486274509803922</v>
       </c>
       <c r="N27" t="n">
         <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>7.345098039215686</v>
+        <v>7.32156862745098</v>
       </c>
     </row>
     <row r="28">
@@ -1848,43 +1848,43 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5999999600000027</v>
+        <v>0.6923076390532585</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06944444412294239</v>
+        <v>0.05726872221467523</v>
       </c>
       <c r="G28" t="n">
-        <v>16.61538461538462</v>
+        <v>16.21428571428572</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4185022026431718</v>
       </c>
       <c r="I28" t="n">
-        <v>6.812820512820514</v>
+        <v>6.653115166771555</v>
       </c>
       <c r="J28" t="n">
-        <v>16.61538461538462</v>
+        <v>16.21428571428572</v>
       </c>
       <c r="K28" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L28" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="M28" t="n">
-        <v>2.342592592592593</v>
+        <v>2.33920704845815</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>7.560185185185185</v>
+        <v>7.484581497797357</v>
       </c>
     </row>
     <row r="29">
@@ -1899,43 +1899,43 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8260869206049165</v>
+        <v>0.7142856802721105</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06764705862456748</v>
+        <v>0.06287425130875973</v>
       </c>
       <c r="G29" t="n">
-        <v>15.45454545454546</v>
+        <v>15.90476190476191</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4088235294117647</v>
+        <v>0.4011976047904192</v>
       </c>
       <c r="I29" t="n">
-        <v>6.345347593582888</v>
+        <v>6.522383803820929</v>
       </c>
       <c r="J29" t="n">
-        <v>15.45454545454546</v>
+        <v>15.90476190476191</v>
       </c>
       <c r="K29" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L29" t="n">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M29" t="n">
-        <v>2.344117647058824</v>
+        <v>2.323353293413174</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>7.25</v>
+        <v>7.245508982035928</v>
       </c>
     </row>
     <row r="30">
@@ -1950,43 +1950,43 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4736841855955691</v>
+        <v>0.5238094988662143</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06810035817885177</v>
+        <v>0.07553956807359867</v>
       </c>
       <c r="G30" t="n">
-        <v>15.5</v>
+        <v>14.63157894736842</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3835125448028674</v>
+        <v>0.3884892086330936</v>
       </c>
       <c r="I30" t="n">
-        <v>6.353405017921148</v>
+        <v>6.008027262400606</v>
       </c>
       <c r="J30" t="n">
-        <v>15.5</v>
+        <v>14.63157894736842</v>
       </c>
       <c r="K30" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
-        <v>2.415770609318996</v>
+        <v>2.456834532374101</v>
       </c>
       <c r="N30" t="n">
         <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>7.329749103942652</v>
+        <v>7.402877697841727</v>
       </c>
     </row>
     <row r="31">
@@ -2001,43 +2001,43 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
         <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4374999863281255</v>
+        <v>0.4193548251821024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08020050105212907</v>
+        <v>0.07730673297429742</v>
       </c>
       <c r="G31" t="n">
-        <v>12.87096774193548</v>
+        <v>12.93548387096774</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3834586466165413</v>
+        <v>0.3865336658354115</v>
       </c>
       <c r="I31" t="n">
-        <v>5.30177055542081</v>
+        <v>5.328807014721262</v>
       </c>
       <c r="J31" t="n">
-        <v>12.87096774193548</v>
+        <v>12.93548387096774</v>
       </c>
       <c r="K31" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L31" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M31" t="n">
-        <v>2.345864661654135</v>
+        <v>2.371571072319202</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>7.18295739348371</v>
+        <v>7.229426433915212</v>
       </c>
     </row>
     <row r="32">
@@ -2052,43 +2052,43 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3333333055555579</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0451127817852903</v>
+        <v>0.0528169012224757</v>
       </c>
       <c r="G32" t="n">
-        <v>15.64705882352941</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4060150375939849</v>
+        <v>0.4014084507042254</v>
       </c>
       <c r="I32" t="n">
-        <v>6.42122954444936</v>
+        <v>6.471674491392801</v>
       </c>
       <c r="J32" t="n">
-        <v>15.64705882352941</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="K32" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L32" t="n">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
-        <v>2.443609022556391</v>
+        <v>2.440140845070423</v>
       </c>
       <c r="N32" t="n">
         <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>7.278195488721805</v>
+        <v>7.235915492957746</v>
       </c>
     </row>
     <row r="33">
@@ -2103,43 +2103,43 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n">
         <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5806451519250783</v>
+        <v>0.5593220244182708</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1227722769846094</v>
+        <v>0.117999999764</v>
       </c>
       <c r="G33" t="n">
-        <v>15.78125</v>
+        <v>15.625</v>
       </c>
       <c r="H33" t="n">
-        <v>0.504950495049505</v>
+        <v>0.496</v>
       </c>
       <c r="I33" t="n">
-        <v>6.514480198019803</v>
+        <v>6.448399999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>15.78125</v>
+        <v>15.625</v>
       </c>
       <c r="K33" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L33" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M33" t="n">
-        <v>2.677227722772277</v>
+        <v>2.676</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>7.924752475247525</v>
+        <v>7.898</v>
       </c>
     </row>
     <row r="34">
@@ -2157,40 +2157,40 @@
         <v>18</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4999999791666675</v>
+        <v>0.5652173667296797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05417607211246937</v>
+        <v>0.05099778259202266</v>
       </c>
       <c r="G34" t="n">
-        <v>14.29032258064516</v>
+        <v>14.54838709677419</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2889390519187359</v>
+        <v>0.2882483370288249</v>
       </c>
       <c r="I34" t="n">
-        <v>5.831704653025559</v>
+        <v>5.934654173521208</v>
       </c>
       <c r="J34" t="n">
-        <v>14.29032258064516</v>
+        <v>14.54838709677419</v>
       </c>
       <c r="K34" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L34" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M34" t="n">
-        <v>2.133182844243792</v>
+        <v>2.155210643015521</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>6.699774266365688</v>
+        <v>6.73170731707317</v>
       </c>
     </row>
     <row r="35">
@@ -2205,43 +2205,43 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5862068763376939</v>
+        <v>0.4074073923182447</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1132812495574951</v>
+        <v>0.1011235951268779</v>
       </c>
       <c r="G35" t="n">
-        <v>13.47368421052632</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4375</v>
+        <v>0.4307116104868914</v>
       </c>
       <c r="I35" t="n">
-        <v>5.564473684210526</v>
+        <v>6.105617977528091</v>
       </c>
       <c r="J35" t="n">
-        <v>13.47368421052632</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="K35" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L35" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M35" t="n">
-        <v>2.4765625</v>
+        <v>2.449438202247191</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>7.55859375</v>
+        <v>7.445692883895132</v>
       </c>
     </row>
     <row r="36">
@@ -2259,40 +2259,40 @@
         <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1071428552295919</v>
+        <v>0.0689655160523187</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06481481473979767</v>
+        <v>0.06674338312227458</v>
       </c>
       <c r="G36" t="n">
-        <v>9.818181818181818</v>
+        <v>9.764044943820224</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3842592592592592</v>
+        <v>0.3866513233601841</v>
       </c>
       <c r="I36" t="n">
-        <v>4.080976430976431</v>
+        <v>4.060278506872163</v>
       </c>
       <c r="J36" t="n">
-        <v>9.818181818181818</v>
+        <v>9.764044943820224</v>
       </c>
       <c r="K36" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L36" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="M36" t="n">
-        <v>2.393518518518519</v>
+        <v>2.395857307249712</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>7.377314814814815</v>
+        <v>7.375143843498273</v>
       </c>
     </row>
     <row r="37">
@@ -2307,43 +2307,43 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.05555555401234573</v>
+        <v>-0.1428571387755103</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07468879652554192</v>
+        <v>0.07142857128279884</v>
       </c>
       <c r="G37" t="n">
-        <v>10.95454545454546</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3983402489626556</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="I37" t="n">
-        <v>4.541154281403244</v>
+        <v>4.518820861678004</v>
       </c>
       <c r="J37" t="n">
-        <v>10.95454545454546</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="K37" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L37" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M37" t="n">
-        <v>2.37344398340249</v>
+        <v>2.383673469387755</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>7.099585062240664</v>
+        <v>7.163265306122449</v>
       </c>
     </row>
     <row r="38">
@@ -2367,34 +2367,34 @@
         <v>0.4999999791666675</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04696673180632734</v>
+        <v>0.04642166335314959</v>
       </c>
       <c r="G38" t="n">
-        <v>11.10869565217391</v>
+        <v>11.48888888888889</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4833659491193738</v>
+        <v>0.4738878143133462</v>
       </c>
       <c r="I38" t="n">
-        <v>4.636824640517315</v>
+        <v>4.785110681280894</v>
       </c>
       <c r="J38" t="n">
-        <v>11.10869565217391</v>
+        <v>11.48888888888889</v>
       </c>
       <c r="K38" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L38" t="n">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M38" t="n">
-        <v>2.561643835616438</v>
+        <v>2.549323017408124</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>7.714285714285714</v>
+        <v>7.646034816247583</v>
       </c>
     </row>
     <row r="39">
@@ -2409,43 +2409,43 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7142856632653098</v>
+        <v>0.8666666088888928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04388714719784594</v>
+        <v>0.05102040798972651</v>
       </c>
       <c r="G39" t="n">
-        <v>17.72222222222222</v>
+        <v>18.375</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3824451410658307</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="I39" t="n">
-        <v>7.241866945315221</v>
+        <v>7.505102040816327</v>
       </c>
       <c r="J39" t="n">
-        <v>17.72222222222222</v>
+        <v>18.375</v>
       </c>
       <c r="K39" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L39" t="n">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="M39" t="n">
-        <v>2.285266457680251</v>
+        <v>2.326530612244898</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>6.824451410658307</v>
+        <v>6.857142857142857</v>
       </c>
     </row>
     <row r="40">
@@ -2460,43 +2460,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5652173667296797</v>
+        <v>0.6190475895691624</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05437352233008624</v>
+        <v>0.05185185172382259</v>
       </c>
       <c r="G40" t="n">
-        <v>5.716216216216216</v>
+        <v>5.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.342789598108747</v>
+        <v>0.3481481481481482</v>
       </c>
       <c r="I40" t="n">
-        <v>2.423602325729985</v>
+        <v>2.29925925925926</v>
       </c>
       <c r="J40" t="n">
-        <v>5.716216216216216</v>
+        <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L40" t="n">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
-        <v>2.177304964539007</v>
+        <v>2.190123456790123</v>
       </c>
       <c r="N40" t="n">
         <v>20</v>
       </c>
       <c r="O40" t="n">
-        <v>6.940898345153665</v>
+        <v>6.965432098765432</v>
       </c>
     </row>
     <row r="41">
@@ -2511,43 +2511,43 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.599999880000024</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.04629629586762689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>36</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.54444444444445</v>
+      </c>
+      <c r="J41" t="n">
+        <v>36</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39</v>
+      </c>
+      <c r="L41" t="n">
+        <v>108</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="N41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>99</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I41" t="n">
-        <v>39.73333333333333</v>
-      </c>
-      <c r="J41" t="n">
-        <v>99</v>
-      </c>
-      <c r="K41" t="n">
-        <v>33</v>
-      </c>
-      <c r="L41" t="n">
-        <v>99</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.292929292929293</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
       <c r="O41" t="n">
-        <v>6.696969696969697</v>
+        <v>6.842592592592593</v>
       </c>
     </row>
     <row r="42">
@@ -2571,34 +2571,34 @@
         <v>0.3333333111111126</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07537688404333225</v>
+        <v>0.07812499959309896</v>
       </c>
       <c r="G42" t="n">
-        <v>19.9</v>
+        <v>17.45454545454545</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3467336683417085</v>
+        <v>0.390625</v>
       </c>
       <c r="I42" t="n">
-        <v>8.098693467336684</v>
+        <v>7.138068181818181</v>
       </c>
       <c r="J42" t="n">
-        <v>19.9</v>
+        <v>17.45454545454545</v>
       </c>
       <c r="K42" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L42" t="n">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M42" t="n">
-        <v>2.281407035175879</v>
+        <v>2.380208333333333</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>6.984924623115578</v>
+        <v>7.213541666666667</v>
       </c>
     </row>
     <row r="43">
@@ -2613,43 +2613,43 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7142856632653098</v>
+        <v>0.6923076390532585</v>
       </c>
       <c r="F43" t="n">
-        <v>0.087499999453125</v>
+        <v>0.0812499994921875</v>
       </c>
       <c r="G43" t="n">
-        <v>11.42857142857143</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0.325</v>
+        <v>0.29375</v>
       </c>
       <c r="I43" t="n">
-        <v>4.701428571428571</v>
+        <v>4.384166666666666</v>
       </c>
       <c r="J43" t="n">
-        <v>11.42857142857143</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="K43" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L43" t="n">
         <v>160</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1625</v>
+        <v>2.14375</v>
       </c>
       <c r="N43" t="n">
         <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>6.7125</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="44">
@@ -2667,40 +2667,40 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4999999375000079</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0465116276365603</v>
+        <v>0.04069767418199027</v>
       </c>
       <c r="G44" t="n">
-        <v>12.28571428571429</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.2732558139534884</v>
       </c>
       <c r="I44" t="n">
-        <v>5.025913621262459</v>
+        <v>5.401610017889087</v>
       </c>
       <c r="J44" t="n">
-        <v>12.28571428571429</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="K44" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L44" t="n">
         <v>172</v>
       </c>
       <c r="M44" t="n">
-        <v>2.127906976744186</v>
+        <v>2.116279069767442</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>6.825581395348837</v>
+        <v>6.715116279069767</v>
       </c>
     </row>
     <row r="45">
@@ -2715,43 +2715,43 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2941176297577865</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08542713524910987</v>
+        <v>0.0790697670740941</v>
       </c>
       <c r="G45" t="n">
-        <v>7.96</v>
+        <v>7.678571428571429</v>
       </c>
       <c r="H45" t="n">
-        <v>0.221105527638191</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="I45" t="n">
-        <v>3.272442211055277</v>
+        <v>3.173754152823921</v>
       </c>
       <c r="J45" t="n">
-        <v>7.96</v>
+        <v>7.678571428571429</v>
       </c>
       <c r="K45" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L45" t="n">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M45" t="n">
-        <v>1.994974874371859</v>
+        <v>2.055813953488372</v>
       </c>
       <c r="N45" t="n">
         <v>16</v>
       </c>
       <c r="O45" t="n">
-        <v>6.291457286432161</v>
+        <v>6.339534883720931</v>
       </c>
     </row>
     <row r="46">
@@ -2769,40 +2769,40 @@
         <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2592592496570648</v>
+        <v>0.3599999856000006</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163793098431926</v>
+        <v>0.1101321581051447</v>
       </c>
       <c r="G46" t="n">
-        <v>7.733333333333333</v>
+        <v>7.827586206896552</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.3039647577092511</v>
       </c>
       <c r="I46" t="n">
-        <v>3.217471264367816</v>
+        <v>3.252620385842321</v>
       </c>
       <c r="J46" t="n">
-        <v>7.733333333333333</v>
+        <v>7.827586206896552</v>
       </c>
       <c r="K46" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L46" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>1.991189427312775</v>
       </c>
       <c r="N46" t="n">
         <v>6</v>
       </c>
       <c r="O46" t="n">
-        <v>6.413793103448276</v>
+        <v>6.374449339207048</v>
       </c>
     </row>
     <row r="47">
@@ -2817,43 +2817,43 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.142857132653062</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0590717297085581</v>
+        <v>0.05785123943036678</v>
       </c>
       <c r="G47" t="n">
-        <v>9.48</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="I47" t="n">
-        <v>3.959088607594937</v>
+        <v>4.196969696969697</v>
       </c>
       <c r="J47" t="n">
-        <v>9.48</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="K47" t="n">
         <v>99</v>
       </c>
       <c r="L47" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M47" t="n">
-        <v>2.341772151898734</v>
+        <v>2.334710743801653</v>
       </c>
       <c r="N47" t="n">
         <v>5</v>
       </c>
       <c r="O47" t="n">
-        <v>7.008438818565401</v>
+        <v>7.111570247933884</v>
       </c>
     </row>
     <row r="48">
@@ -2868,43 +2868,43 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.599999880000024</v>
+        <v>0.4285713673469475</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02525252512498725</v>
+        <v>0.03846153825021133</v>
       </c>
       <c r="G48" t="n">
-        <v>15.23076923076923</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="I48" t="n">
-        <v>6.213519813519813</v>
+        <v>6.198534798534799</v>
       </c>
       <c r="J48" t="n">
-        <v>15.23076923076923</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="K48" t="n">
         <v>60</v>
       </c>
       <c r="L48" t="n">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="M48" t="n">
-        <v>2.095959595959596</v>
+        <v>2.203296703296703</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>6.555555555555555</v>
+        <v>6.851648351648351</v>
       </c>
     </row>
     <row r="49">
@@ -2919,43 +2919,43 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.333333277777787</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04958677644969606</v>
+        <v>0.06306306249492737</v>
       </c>
       <c r="G49" t="n">
-        <v>30.25</v>
+        <v>37</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3305785123966942</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="I49" t="n">
-        <v>12.23223140495868</v>
+        <v>14.92612612612613</v>
       </c>
       <c r="J49" t="n">
-        <v>30.25</v>
+        <v>37</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L49" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M49" t="n">
-        <v>2.165289256198347</v>
+        <v>2.189189189189189</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>6.867768595041323</v>
+        <v>6.927927927927928</v>
       </c>
     </row>
     <row r="50">
@@ -2970,43 +2970,43 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09090908264462885</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1089108900107833</v>
+        <v>0.08247422595387396</v>
       </c>
       <c r="G50" t="n">
-        <v>14.42857142857143</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3564356435643564</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="I50" t="n">
-        <v>5.914002828854315</v>
+        <v>5.68718703976436</v>
       </c>
       <c r="J50" t="n">
-        <v>14.42857142857143</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="K50" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L50" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M50" t="n">
-        <v>2.287128712871287</v>
+        <v>2.288659793814433</v>
       </c>
       <c r="N50" t="n">
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>7.069306930693069</v>
+        <v>7.082474226804123</v>
       </c>
     </row>
     <row r="51">
@@ -3030,34 +3030,34 @@
         <v>0.7142856122449125</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06481481421467765</v>
+        <v>0.06422018289706255</v>
       </c>
       <c r="G51" t="n">
-        <v>15.42857142857143</v>
+        <v>27.25</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4311926605504587</v>
       </c>
       <c r="I51" t="n">
-        <v>6.341798941798942</v>
+        <v>11.07247706422018</v>
       </c>
       <c r="J51" t="n">
-        <v>15.42857142857143</v>
+        <v>27.25</v>
       </c>
       <c r="K51" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L51" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M51" t="n">
-        <v>2.398148148148148</v>
+        <v>2.376146788990826</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>7.222222222222222</v>
+        <v>7.192660550458716</v>
       </c>
     </row>
     <row r="52">
@@ -3072,43 +3072,43 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.636363578512402</v>
+        <v>0.5555554938271674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06395348800027043</v>
+        <v>0.0491803276001075</v>
       </c>
       <c r="G52" t="n">
-        <v>17.2</v>
+        <v>16.63636363636364</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3779069767441861</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="I52" t="n">
-        <v>7.031162790697675</v>
+        <v>6.816294088425237</v>
       </c>
       <c r="J52" t="n">
-        <v>17.2</v>
+        <v>16.63636363636364</v>
       </c>
       <c r="K52" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L52" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M52" t="n">
-        <v>2.232558139534884</v>
+        <v>2.278688524590164</v>
       </c>
       <c r="N52" t="n">
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>6.918604651162791</v>
+        <v>6.85792349726776</v>
       </c>
     </row>
     <row r="53">
@@ -3126,40 +3126,40 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5999999600000027</v>
+        <v>0.7142856632653098</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07281553362710906</v>
+        <v>0.06511627876690103</v>
       </c>
       <c r="G53" t="n">
-        <v>13.73333333333333</v>
+        <v>12.64705882352941</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2621359223300971</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="I53" t="n">
-        <v>5.598187702265372</v>
+        <v>5.161149110807114</v>
       </c>
       <c r="J53" t="n">
-        <v>13.73333333333333</v>
+        <v>12.64705882352941</v>
       </c>
       <c r="K53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L53" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M53" t="n">
-        <v>2.024271844660194</v>
+        <v>1.986046511627907</v>
       </c>
       <c r="N53" t="n">
         <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>6.213592233009709</v>
+        <v>6.093023255813954</v>
       </c>
     </row>
     <row r="54">
@@ -3174,43 +3174,43 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04918032746573502</v>
+        <v>0.06796116438872656</v>
       </c>
       <c r="G54" t="n">
-        <v>17.42857142857143</v>
+        <v>12.875</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2704918032786885</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="I54" t="n">
-        <v>7.079625292740046</v>
+        <v>5.262621359223301</v>
       </c>
       <c r="J54" t="n">
-        <v>17.42857142857143</v>
+        <v>12.875</v>
       </c>
       <c r="K54" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L54" t="n">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="M54" t="n">
-        <v>2.254098360655738</v>
+        <v>2.155339805825243</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>6.909836065573771</v>
+        <v>6.747572815533981</v>
       </c>
     </row>
     <row r="55">
@@ -3228,40 +3228,40 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.399999960000004</v>
+        <v>0.2727272479338866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04464285694355868</v>
+        <v>0.05045871536486828</v>
       </c>
       <c r="G55" t="n">
-        <v>9.739130434782609</v>
+        <v>9.478260869565217</v>
       </c>
       <c r="H55" t="n">
-        <v>0.375</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="I55" t="n">
-        <v>4.045652173913044</v>
+        <v>3.927084164339849</v>
       </c>
       <c r="J55" t="n">
-        <v>9.739130434782609</v>
+        <v>9.478260869565217</v>
       </c>
       <c r="K55" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L55" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M55" t="n">
-        <v>2.232142857142857</v>
+        <v>2.142201834862385</v>
       </c>
       <c r="N55" t="n">
         <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>6.90625</v>
+        <v>6.779816513761468</v>
       </c>
     </row>
     <row r="56">
@@ -3279,40 +3279,40 @@
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>0.599999940000006</v>
+        <v>0.3333333055555579</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03802281354363949</v>
+        <v>0.04979253091372394</v>
       </c>
       <c r="G56" t="n">
-        <v>18.78571428571428</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3688212927756654</v>
+        <v>0.3692946058091287</v>
       </c>
       <c r="I56" t="n">
-        <v>7.661814231395979</v>
+        <v>6.574384508990318</v>
       </c>
       <c r="J56" t="n">
-        <v>18.78571428571428</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="K56" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L56" t="n">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="M56" t="n">
-        <v>2.178707224334601</v>
+        <v>2.186721991701245</v>
       </c>
       <c r="N56" t="n">
         <v>4</v>
       </c>
       <c r="O56" t="n">
-        <v>6.787072243346008</v>
+        <v>6.755186721991701</v>
       </c>
     </row>
     <row r="57">
@@ -3327,43 +3327,43 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2222222098765439</v>
+        <v>0.2631578808864273</v>
       </c>
       <c r="F57" t="n">
-        <v>0.116129031508845</v>
+        <v>0.1225806443704475</v>
       </c>
       <c r="G57" t="n">
-        <v>19.375</v>
+        <v>14.09090909090909</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3483870967741935</v>
       </c>
       <c r="I57" t="n">
-        <v>7.879032258064517</v>
+        <v>5.775718475073314</v>
       </c>
       <c r="J57" t="n">
-        <v>19.375</v>
+        <v>14.09090909090909</v>
       </c>
       <c r="K57" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L57" t="n">
         <v>155</v>
       </c>
       <c r="M57" t="n">
-        <v>2.232258064516129</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>6.774193548387097</v>
+        <v>7.064516129032258</v>
       </c>
     </row>
     <row r="58">
@@ -3378,43 +3378,43 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1999999900000005</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08888888849382716</v>
+        <v>0.08294930837350549</v>
       </c>
       <c r="G58" t="n">
-        <v>15</v>
+        <v>12.76470588235294</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3155555555555555</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="I58" t="n">
-        <v>6.126222222222222</v>
+        <v>5.234914611005693</v>
       </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>12.76470588235294</v>
       </c>
       <c r="K58" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L58" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M58" t="n">
-        <v>2.168888888888889</v>
+        <v>2.221198156682028</v>
       </c>
       <c r="N58" t="n">
         <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>6.786666666666667</v>
+        <v>6.84331797235023</v>
       </c>
     </row>
     <row r="59">
@@ -3432,40 +3432,40 @@
         <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5999999600000027</v>
+        <v>0.3333333148148158</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0663716811222492</v>
+        <v>0.07894736807479225</v>
       </c>
       <c r="G59" t="n">
-        <v>8.692307692307692</v>
+        <v>9.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0.331858407079646</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I59" t="n">
-        <v>3.609666439754935</v>
+        <v>3.947368421052632</v>
       </c>
       <c r="J59" t="n">
-        <v>8.692307692307692</v>
+        <v>9.5</v>
       </c>
       <c r="K59" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L59" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M59" t="n">
-        <v>2.20353982300885</v>
+        <v>2.223684210526316</v>
       </c>
       <c r="N59" t="n">
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>6.668141592920354</v>
+        <v>6.763157894736842</v>
       </c>
     </row>
     <row r="60">
@@ -3480,43 +3480,43 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09090908264462885</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07913669007815331</v>
+        <v>0.08571428510204082</v>
       </c>
       <c r="G60" t="n">
-        <v>11.58333333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3453237410071943</v>
+        <v>0.35</v>
       </c>
       <c r="I60" t="n">
-        <v>4.771462829736211</v>
+        <v>4.806666666666667</v>
       </c>
       <c r="J60" t="n">
-        <v>11.58333333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="K60" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L60" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M60" t="n">
-        <v>2.237410071942446</v>
+        <v>2.25</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>7.035971223021583</v>
+        <v>7.042857142857143</v>
       </c>
     </row>
     <row r="61">
@@ -3534,40 +3534,40 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4285713673469475</v>
+        <v>0.6666665555555741</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06930693000686208</v>
+        <v>0.05714285659863946</v>
       </c>
       <c r="G61" t="n">
-        <v>14.42857142857143</v>
+        <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>0.297029702970297</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="I61" t="n">
-        <v>5.890240452616691</v>
+        <v>6.137142857142858</v>
       </c>
       <c r="J61" t="n">
-        <v>14.42857142857143</v>
+        <v>15</v>
       </c>
       <c r="K61" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L61" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M61" t="n">
-        <v>2.089108910891089</v>
+        <v>2.20952380952381</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>6.564356435643564</v>
+        <v>6.838095238095238</v>
       </c>
     </row>
     <row r="62">
@@ -3582,43 +3582,43 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.2727272479338866</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09259259173525378</v>
+        <v>0.09909909820631443</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I62" t="n">
-        <v>4.92962962962963</v>
+        <v>6.494208494208495</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="K62" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L62" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M62" t="n">
-        <v>2.083333333333333</v>
+        <v>2.225225225225225</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>6.62037037037037</v>
+        <v>6.990990990990991</v>
       </c>
     </row>
     <row r="63">
@@ -3633,43 +3633,43 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1999999866666676</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1282051271093579</v>
+        <v>0.1181102352904706</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="I63" t="n">
-        <v>5.364102564102565</v>
+        <v>5.234330708661417</v>
       </c>
       <c r="J63" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="K63" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L63" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M63" t="n">
-        <v>2.341880341880342</v>
+        <v>2.291338582677165</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>7.29059829059829</v>
+        <v>7.086614173228346</v>
       </c>
     </row>
     <row r="64">
@@ -3684,43 +3684,43 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7499999062500118</v>
+        <v>0.5384614970414233</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07339449473950005</v>
+        <v>0.1111111101614435</v>
       </c>
       <c r="G64" t="n">
-        <v>15.57142857142857</v>
+        <v>14.625</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3669724770642202</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="I64" t="n">
-        <v>6.375360419397117</v>
+        <v>6.024358974358975</v>
       </c>
       <c r="J64" t="n">
-        <v>15.57142857142857</v>
+        <v>14.625</v>
       </c>
       <c r="K64" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L64" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M64" t="n">
-        <v>2.229357798165138</v>
+        <v>2.427350427350427</v>
       </c>
       <c r="N64" t="n">
         <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>6.981651376146789</v>
+        <v>7.273504273504273</v>
       </c>
     </row>
     <row r="65">
@@ -3735,43 +3735,43 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.1764705778546719</v>
+        <v>-0.3333333055555579</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1249999990808824</v>
+        <v>0.08955223813766987</v>
       </c>
       <c r="G65" t="n">
-        <v>10.46153846153846</v>
+        <v>10.30769230769231</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="I65" t="n">
-        <v>4.337556561085973</v>
+        <v>4.284270952927669</v>
       </c>
       <c r="J65" t="n">
-        <v>10.46153846153846</v>
+        <v>10.30769230769231</v>
       </c>
       <c r="K65" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L65" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M65" t="n">
-        <v>2.294117647058823</v>
+        <v>2.253731343283582</v>
       </c>
       <c r="N65" t="n">
         <v>4</v>
       </c>
       <c r="O65" t="n">
-        <v>7.029411764705882</v>
+        <v>7.149253731343284</v>
       </c>
     </row>
     <row r="66">
@@ -3786,43 +3786,43 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8461537810650938</v>
+        <v>0.6999999650000017</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06341463383700179</v>
+        <v>0.09523809478458051</v>
       </c>
       <c r="G66" t="n">
-        <v>10.78947368421053</v>
+        <v>10.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="I66" t="n">
-        <v>4.462130937098844</v>
+        <v>4.348571428571429</v>
       </c>
       <c r="J66" t="n">
-        <v>10.78947368421053</v>
+        <v>10.5</v>
       </c>
       <c r="K66" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L66" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M66" t="n">
-        <v>2.219512195121951</v>
+        <v>2.257142857142857</v>
       </c>
       <c r="N66" t="n">
         <v>8</v>
       </c>
       <c r="O66" t="n">
-        <v>6.965853658536585</v>
+        <v>6.90952380952381</v>
       </c>
     </row>
     <row r="67">
@@ -3837,43 +3837,43 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4117646816609011</v>
+        <v>0.5454545206611581</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06995884744872902</v>
+        <v>0.08835341329978549</v>
       </c>
       <c r="G67" t="n">
-        <v>12.15</v>
+        <v>10.82608695652174</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3950617283950617</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="I67" t="n">
-        <v>5.018024691358026</v>
+        <v>4.489470927187009</v>
       </c>
       <c r="J67" t="n">
-        <v>12.15</v>
+        <v>10.82608695652174</v>
       </c>
       <c r="K67" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L67" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M67" t="n">
-        <v>2.366255144032922</v>
+        <v>2.40562248995984</v>
       </c>
       <c r="N67" t="n">
         <v>12</v>
       </c>
       <c r="O67" t="n">
-        <v>7.255144032921811</v>
+        <v>7.393574297188755</v>
       </c>
     </row>
     <row r="68">
@@ -3888,43 +3888,43 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.249999984375001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05970149231454667</v>
+        <v>0.04494382005639019</v>
       </c>
       <c r="G68" t="n">
-        <v>14.88888888888889</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I68" t="n">
-        <v>6.086898839137646</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="J68" t="n">
-        <v>14.88888888888889</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="K68" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L68" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M68" t="n">
-        <v>2.197761194029851</v>
+        <v>2.179775280898876</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
-        <v>6.716417910447761</v>
+        <v>6.640449438202247</v>
       </c>
     </row>
     <row r="69">
@@ -3939,43 +3939,43 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
         <v>13</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2972972892622354</v>
+        <v>0.2777777700617286</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1174603170874276</v>
+        <v>0.1176470584390619</v>
       </c>
       <c r="G69" t="n">
-        <v>12.6</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2984126984126984</v>
+        <v>0.3006535947712418</v>
       </c>
       <c r="I69" t="n">
-        <v>5.15936507936508</v>
+        <v>4.65359477124183</v>
       </c>
       <c r="J69" t="n">
-        <v>12.6</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="K69" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L69" t="n">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M69" t="n">
-        <v>2.155555555555555</v>
+        <v>2.160130718954248</v>
       </c>
       <c r="N69" t="n">
         <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>6.546031746031746</v>
+        <v>6.578431372549019</v>
       </c>
     </row>
     <row r="70">
@@ -3990,43 +3990,43 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7499999062500118</v>
+        <v>0.599999940000006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03088803076877208</v>
+        <v>0.04081632636401499</v>
       </c>
       <c r="G70" t="n">
-        <v>12.33333333333333</v>
+        <v>12.25</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2938775510204082</v>
       </c>
       <c r="I70" t="n">
-        <v>5.047619047619048</v>
+        <v>5.017551020408163</v>
       </c>
       <c r="J70" t="n">
-        <v>12.33333333333333</v>
+        <v>12.25</v>
       </c>
       <c r="K70" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L70" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="M70" t="n">
-        <v>2.088803088803089</v>
+        <v>2.085714285714286</v>
       </c>
       <c r="N70" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O70" t="n">
-        <v>6.791505791505791</v>
+        <v>6.804081632653062</v>
       </c>
     </row>
     <row r="71">
@@ -4041,43 +4041,43 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8181817438016598</v>
+        <v>0.8333332638888947</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04741379289907848</v>
+        <v>0.05106382956994115</v>
       </c>
       <c r="G71" t="n">
-        <v>19.33333333333333</v>
+        <v>16.78571428571428</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3405172413793103</v>
+        <v>0.3574468085106383</v>
       </c>
       <c r="I71" t="n">
-        <v>7.869540229885057</v>
+        <v>6.857264437689969</v>
       </c>
       <c r="J71" t="n">
-        <v>19.33333333333333</v>
+        <v>16.78571428571428</v>
       </c>
       <c r="K71" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L71" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M71" t="n">
-        <v>2.116379310344827</v>
+        <v>2.195744680851064</v>
       </c>
       <c r="N71" t="n">
         <v>6</v>
       </c>
       <c r="O71" t="n">
-        <v>6.831896551724138</v>
+        <v>7.021276595744681</v>
       </c>
     </row>
     <row r="72">
@@ -4095,40 +4095,40 @@
         <v>26</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7333333088888897</v>
+        <v>0.6249999804687506</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06550218326309568</v>
+        <v>0.0680851062381168</v>
       </c>
       <c r="G72" t="n">
-        <v>13.08571428571429</v>
+        <v>12.36842105263158</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4366812227074236</v>
+        <v>0.4319148936170213</v>
       </c>
       <c r="I72" t="n">
-        <v>5.408958203368684</v>
+        <v>5.12013437849944</v>
       </c>
       <c r="J72" t="n">
-        <v>13.08571428571429</v>
+        <v>12.36842105263158</v>
       </c>
       <c r="K72" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L72" t="n">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M72" t="n">
-        <v>2.458515283842795</v>
+        <v>2.440425531914894</v>
       </c>
       <c r="N72" t="n">
         <v>6</v>
       </c>
       <c r="O72" t="n">
-        <v>7.292576419213974</v>
+        <v>7.270212765957447</v>
       </c>
     </row>
     <row r="73">
@@ -4152,34 +4152,34 @@
         <v>0.4285713673469475</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03888888867283951</v>
+        <v>0.03763440839981501</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>23.25</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.2956989247311828</v>
       </c>
       <c r="I73" t="n">
-        <v>8.115555555555556</v>
+        <v>9.418279569892475</v>
       </c>
       <c r="J73" t="n">
-        <v>20</v>
+        <v>23.25</v>
       </c>
       <c r="K73" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L73" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M73" t="n">
-        <v>2.161111111111111</v>
+        <v>2.155913978494624</v>
       </c>
       <c r="N73" t="n">
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>6.755555555555556</v>
+        <v>6.526881720430108</v>
       </c>
     </row>
     <row r="74">
@@ -4194,43 +4194,43 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.7142856122449125</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02941176458230351</v>
+        <v>0.03225806436747436</v>
       </c>
       <c r="G74" t="n">
-        <v>13.22222222222222</v>
+        <v>13.5625</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3949579831932773</v>
+        <v>0.3640552995391705</v>
       </c>
       <c r="I74" t="n">
-        <v>5.4468720821662</v>
+        <v>5.570622119815669</v>
       </c>
       <c r="J74" t="n">
-        <v>13.22222222222222</v>
+        <v>13.5625</v>
       </c>
       <c r="K74" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L74" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="M74" t="n">
-        <v>2.369747899159664</v>
+        <v>2.299539170506912</v>
       </c>
       <c r="N74" t="n">
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>7.172268907563025</v>
+        <v>7.119815668202765</v>
       </c>
     </row>
     <row r="75">
@@ -4245,43 +4245,43 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>0.599999880000024</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F75" t="n">
-        <v>0.05617977464966546</v>
+        <v>0.05319148879583523</v>
       </c>
       <c r="G75" t="n">
-        <v>29.66666666666667</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3483146067415731</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="I75" t="n">
-        <v>12.0059925093633</v>
+        <v>12.6354609929078</v>
       </c>
       <c r="J75" t="n">
-        <v>29.66666666666667</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L75" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M75" t="n">
-        <v>2.292134831460674</v>
+        <v>2.01063829787234</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>7.044943820224719</v>
+        <v>6.372340425531915</v>
       </c>
     </row>
     <row r="76">
@@ -4296,43 +4296,43 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5384614970414233</v>
+        <v>0.3333333055555579</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06467661659364868</v>
+        <v>0.05797101421270041</v>
       </c>
       <c r="G76" t="n">
-        <v>12.5625</v>
+        <v>13.8</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3482587064676617</v>
+        <v>0.3285024154589372</v>
       </c>
       <c r="I76" t="n">
-        <v>5.164303482587066</v>
+        <v>5.651400966183576</v>
       </c>
       <c r="J76" t="n">
-        <v>12.5625</v>
+        <v>13.8</v>
       </c>
       <c r="K76" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L76" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M76" t="n">
-        <v>2.238805970149254</v>
+        <v>2.202898550724638</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
       </c>
       <c r="O76" t="n">
-        <v>6.890547263681592</v>
+        <v>6.821256038647343</v>
       </c>
     </row>
     <row r="77">
@@ -4356,34 +4356,34 @@
         <v>0.4999999375000079</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0388349512677915</v>
+        <v>0.03791469176343748</v>
       </c>
       <c r="G77" t="n">
-        <v>13.73333333333333</v>
+        <v>15.07142857142857</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3009708737864077</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="I77" t="n">
-        <v>5.613721682847896</v>
+        <v>6.144211238997968</v>
       </c>
       <c r="J77" t="n">
-        <v>13.73333333333333</v>
+        <v>15.07142857142857</v>
       </c>
       <c r="K77" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L77" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M77" t="n">
-        <v>2.179611650485437</v>
+        <v>2.165876777251185</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
       </c>
       <c r="O77" t="n">
-        <v>6.771844660194175</v>
+        <v>6.753554502369668</v>
       </c>
     </row>
     <row r="78">
@@ -4398,43 +4398,43 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.599999880000024</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04032258031997919</v>
+        <v>0.01801801785569353</v>
       </c>
       <c r="G78" t="n">
-        <v>31</v>
+        <v>22.2</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="I78" t="n">
-        <v>12.52903225806452</v>
+        <v>9.034954954954955</v>
       </c>
       <c r="J78" t="n">
-        <v>31</v>
+        <v>22.2</v>
       </c>
       <c r="K78" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L78" t="n">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M78" t="n">
-        <v>2.258064516129032</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78" t="n">
-        <v>7.185483870967742</v>
+        <v>7.243243243243243</v>
       </c>
     </row>
     <row r="79">
@@ -4449,43 +4449,43 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2727272479338866</v>
+        <v>-0.399999960000004</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06707317032272457</v>
+        <v>0.06410256369165024</v>
       </c>
       <c r="G79" t="n">
-        <v>18.22222222222222</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3597560975609756</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="I79" t="n">
-        <v>7.432791327913279</v>
+        <v>7.092307692307692</v>
       </c>
       <c r="J79" t="n">
-        <v>18.22222222222222</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K79" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L79" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M79" t="n">
-        <v>2.365853658536585</v>
+        <v>2.423076923076923</v>
       </c>
       <c r="N79" t="n">
         <v>5</v>
       </c>
       <c r="O79" t="n">
-        <v>6.823170731707317</v>
+        <v>6.993589743589744</v>
       </c>
     </row>
     <row r="80">
@@ -4503,40 +4503,40 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5714285306122479</v>
+        <v>-0.5384614970414233</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07567567526661798</v>
+        <v>0.0687830684191372</v>
       </c>
       <c r="G80" t="n">
-        <v>12.33333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0.227027027027027</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="I80" t="n">
-        <v>5.024144144144145</v>
+        <v>5.497354497354498</v>
       </c>
       <c r="J80" t="n">
-        <v>12.33333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="K80" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L80" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M80" t="n">
-        <v>1.972972972972973</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="N80" t="n">
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>6.259459459459459</v>
+        <v>6.317460317460317</v>
       </c>
     </row>
     <row r="81">
@@ -4551,43 +4551,43 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01923076913831361</v>
+        <v>0.02450980380142253</v>
       </c>
       <c r="G81" t="n">
-        <v>26</v>
+        <v>20.4</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="I81" t="n">
-        <v>10.55384615384615</v>
+        <v>8.30313725490196</v>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>20.4</v>
       </c>
       <c r="K81" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L81" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M81" t="n">
-        <v>2.230769230769231</v>
+        <v>2.186274509803921</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>6.903846153846154</v>
+        <v>6.720588235294118</v>
       </c>
     </row>
     <row r="82">
@@ -4611,34 +4611,34 @@
         <v>0.6666665555555741</v>
       </c>
       <c r="F82" t="n">
-        <v>0.06315789407202217</v>
+        <v>0.05940594000588179</v>
       </c>
       <c r="G82" t="n">
-        <v>23.75</v>
+        <v>20.2</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="I82" t="n">
-        <v>9.626315789473685</v>
+        <v>8.210693069306931</v>
       </c>
       <c r="J82" t="n">
-        <v>23.75</v>
+        <v>20.2</v>
       </c>
       <c r="K82" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L82" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M82" t="n">
-        <v>2.242105263157895</v>
+        <v>2.188118811881188</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>6.789473684210527</v>
+        <v>6.623762376237623</v>
       </c>
     </row>
     <row r="83">
@@ -4665,31 +4665,31 @@
         <v>0.05185185146776406</v>
       </c>
       <c r="G83" t="n">
-        <v>22.5</v>
+        <v>33.75</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3407407407407407</v>
+        <v>0.3481481481481482</v>
       </c>
       <c r="I83" t="n">
-        <v>9.136296296296297</v>
+        <v>13.63925925925926</v>
       </c>
       <c r="J83" t="n">
-        <v>22.5</v>
+        <v>33.75</v>
       </c>
       <c r="K83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L83" t="n">
         <v>135</v>
       </c>
       <c r="M83" t="n">
-        <v>2.281481481481482</v>
+        <v>2.237037037037037</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>6.888888888888889</v>
+        <v>6.770370370370371</v>
       </c>
     </row>
     <row r="84">
@@ -4704,43 +4704,43 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.06666666629629629</v>
+        <v>0.0748663097600732</v>
       </c>
       <c r="G84" t="n">
-        <v>10.58823529411765</v>
+        <v>9.842105263157896</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2944444444444445</v>
+        <v>0.3048128342245989</v>
       </c>
       <c r="I84" t="n">
-        <v>4.353071895424836</v>
+        <v>4.058767238952998</v>
       </c>
       <c r="J84" t="n">
-        <v>10.58823529411765</v>
+        <v>9.842105263157896</v>
       </c>
       <c r="K84" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L84" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M84" t="n">
-        <v>2.177777777777778</v>
+        <v>2.213903743315508</v>
       </c>
       <c r="N84" t="n">
         <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>6.872222222222222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -4755,43 +4755,43 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5999999600000027</v>
+        <v>0.4285713979591859</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07211538426867604</v>
+        <v>0.06278026877677009</v>
       </c>
       <c r="G85" t="n">
-        <v>12.23529411764706</v>
+        <v>15.92857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2959641255605381</v>
       </c>
       <c r="I85" t="n">
-        <v>5.017194570135747</v>
+        <v>6.489814221652788</v>
       </c>
       <c r="J85" t="n">
-        <v>12.23529411764706</v>
+        <v>15.92857142857143</v>
       </c>
       <c r="K85" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L85" t="n">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M85" t="n">
-        <v>2.201923076923077</v>
+        <v>2.170403587443946</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>6.908653846153846</v>
+        <v>6.762331838565022</v>
       </c>
     </row>
     <row r="86">
@@ -4815,34 +4815,34 @@
         <v>0.3333332222222593</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0180722890477573</v>
+        <v>0.01754385954652714</v>
       </c>
       <c r="G86" t="n">
-        <v>20.75</v>
+        <v>19</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2710843373493976</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="I86" t="n">
-        <v>8.408433734939759</v>
+        <v>7.719298245614036</v>
       </c>
       <c r="J86" t="n">
-        <v>20.75</v>
+        <v>19</v>
       </c>
       <c r="K86" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L86" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M86" t="n">
-        <v>2.174698795180723</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>6.518072289156627</v>
+        <v>6.771929824561403</v>
       </c>
     </row>
     <row r="87">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05999999940000001</v>
+        <v>0.03960396000392119</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>33.66666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>0.33</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="I87" t="n">
-        <v>8.132</v>
+        <v>13.5973597359736</v>
       </c>
       <c r="J87" t="n">
-        <v>20</v>
+        <v>33.66666666666666</v>
       </c>
       <c r="K87" t="n">
         <v>33</v>
       </c>
       <c r="L87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M87" t="n">
-        <v>2.2</v>
+        <v>2.138613861386139</v>
       </c>
       <c r="N87" t="n">
         <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>6.71</v>
+        <v>6.445544554455446</v>
       </c>
     </row>
     <row r="88">
@@ -4908,43 +4908,43 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.6666665555555741</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02941176448961938</v>
+        <v>0.04580152636792728</v>
       </c>
       <c r="G88" t="n">
-        <v>10.46153846153846</v>
+        <v>11.90909090909091</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3897058823529412</v>
+        <v>0.3816793893129771</v>
       </c>
       <c r="I88" t="n">
-        <v>4.340497737556562</v>
+        <v>4.916308119361554</v>
       </c>
       <c r="J88" t="n">
-        <v>10.46153846153846</v>
+        <v>11.90909090909091</v>
       </c>
       <c r="K88" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M88" t="n">
-        <v>2.323529411764706</v>
+        <v>2.312977099236641</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>7.080882352941177</v>
+        <v>7.038167938931298</v>
       </c>
     </row>
     <row r="89">
@@ -4959,43 +4959,43 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>0.599999880000024</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03086419734034446</v>
+        <v>0.04026845610558083</v>
       </c>
       <c r="G89" t="n">
-        <v>10.8</v>
+        <v>9.3125</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="I89" t="n">
-        <v>4.482962962962963</v>
+        <v>3.880704697986578</v>
       </c>
       <c r="J89" t="n">
-        <v>10.8</v>
+        <v>9.3125</v>
       </c>
       <c r="K89" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L89" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M89" t="n">
-        <v>2.41358024691358</v>
+        <v>2.38255033557047</v>
       </c>
       <c r="N89" t="n">
         <v>2</v>
       </c>
       <c r="O89" t="n">
-        <v>7.462962962962963</v>
+        <v>7.268456375838926</v>
       </c>
     </row>
     <row r="90">
@@ -5010,43 +5010,43 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.9999996666667778</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02797202777641939</v>
+        <v>0.02272727255509642</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="I90" t="n">
-        <v>5.323076923076924</v>
+        <v>4.524242424242424</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K90" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L90" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M90" t="n">
-        <v>2.223776223776224</v>
+        <v>2.234848484848485</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>6.79020979020979</v>
+        <v>6.856060606060606</v>
       </c>
     </row>
     <row r="91">
@@ -5070,34 +5070,34 @@
         <v>0.6923076390532585</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09420289786809495</v>
+        <v>0.09489051025627365</v>
       </c>
       <c r="G91" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2246376811594203</v>
+        <v>0.2554744525547445</v>
       </c>
       <c r="I91" t="n">
-        <v>27.68985507246377</v>
+        <v>27.5021897810219</v>
       </c>
       <c r="J91" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="K91" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L91" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M91" t="n">
-        <v>1.978260869565217</v>
+        <v>2.036496350364963</v>
       </c>
       <c r="N91" t="n">
         <v>3</v>
       </c>
       <c r="O91" t="n">
-        <v>6.27536231884058</v>
+        <v>6.525547445255475</v>
       </c>
     </row>
     <row r="92">
@@ -5112,43 +5112,43 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.7499999062500118</v>
+        <v>-0.3846153550295881</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0506329110719436</v>
+        <v>0.0812499994921875</v>
       </c>
       <c r="G92" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2594936708860759</v>
+        <v>0.2625</v>
       </c>
       <c r="I92" t="n">
-        <v>15.90379746835443</v>
+        <v>16.105</v>
       </c>
       <c r="J92" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="K92" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L92" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M92" t="n">
-        <v>2.012658227848101</v>
+        <v>1.98125</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>6.481012658227848</v>
+        <v>6.49375</v>
       </c>
     </row>
     <row r="93">
@@ -5163,43 +5163,43 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.799999960000002</v>
+        <v>0.8260869206049165</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04662004651137518</v>
+        <v>0.05299539158295993</v>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>13.5625</v>
       </c>
       <c r="H93" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3617511520737327</v>
       </c>
       <c r="I93" t="n">
-        <v>5.343589743589744</v>
+        <v>5.569700460829494</v>
       </c>
       <c r="J93" t="n">
-        <v>13</v>
+        <v>13.5625</v>
       </c>
       <c r="K93" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L93" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M93" t="n">
-        <v>2.198135198135198</v>
+        <v>2.19815668202765</v>
       </c>
       <c r="N93" t="n">
         <v>3</v>
       </c>
       <c r="O93" t="n">
-        <v>6.764568764568764</v>
+        <v>6.755760368663594</v>
       </c>
     </row>
     <row r="94">
@@ -5214,43 +5214,43 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8947367950138528</v>
+        <v>0.8888888395061756</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04086021496589201</v>
+        <v>0.0393013099578574</v>
       </c>
       <c r="G94" t="n">
-        <v>13.28571428571429</v>
+        <v>13.87878787878788</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3483870967741935</v>
+        <v>0.3537117903930131</v>
       </c>
       <c r="I94" t="n">
-        <v>5.453640552995392</v>
+        <v>5.692999867672357</v>
       </c>
       <c r="J94" t="n">
-        <v>13.28571428571429</v>
+        <v>13.87878787878788</v>
       </c>
       <c r="K94" t="n">
         <v>162</v>
       </c>
       <c r="L94" t="n">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M94" t="n">
-        <v>2.236559139784946</v>
+        <v>2.22707423580786</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>6.862365591397849</v>
+        <v>6.834061135371179</v>
       </c>
     </row>
     <row r="95">
@@ -5265,43 +5265,43 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
-      <c r="E95" t="n">
-        <v>0.9999997500000625</v>
-      </c>
       <c r="F95" t="n">
-        <v>0.04123711297693698</v>
+        <v>0.0238095235260771</v>
       </c>
       <c r="G95" t="n">
-        <v>32.33333333333334</v>
+        <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4329896907216495</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I95" t="n">
-        <v>13.10652920962199</v>
+        <v>8.542857142857143</v>
       </c>
       <c r="J95" t="n">
-        <v>32.33333333333334</v>
+        <v>21</v>
       </c>
       <c r="K95" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L95" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M95" t="n">
-        <v>2.360824742268041</v>
+        <v>2.261904761904762</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>7.11340206185567</v>
+        <v>7.011904761904762</v>
       </c>
     </row>
     <row r="96">
@@ -5316,43 +5316,43 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2499999687500039</v>
+        <v>0.1428571224489825</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04232804210408443</v>
+        <v>0.04093567227522998</v>
       </c>
       <c r="G96" t="n">
-        <v>11.11764705882353</v>
+        <v>10.05882352941176</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="I96" t="n">
-        <v>4.561344537815127</v>
+        <v>4.135810113519092</v>
       </c>
       <c r="J96" t="n">
-        <v>11.11764705882353</v>
+        <v>10.05882352941176</v>
       </c>
       <c r="K96" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L96" t="n">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="M96" t="n">
-        <v>2.105820105820106</v>
+        <v>2.076023391812865</v>
       </c>
       <c r="N96" t="n">
         <v>3</v>
       </c>
       <c r="O96" t="n">
-        <v>6.433862433862434</v>
+        <v>6.327485380116959</v>
       </c>
     </row>
     <row r="97">
@@ -5367,43 +5367,43 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D97" t="n">
         <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.3333333055555579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05673758825008803</v>
+        <v>0.07692307642998028</v>
       </c>
       <c r="G97" t="n">
-        <v>15.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="I97" t="n">
-        <v>6.422695035460993</v>
+        <v>5.358974358974359</v>
       </c>
       <c r="J97" t="n">
-        <v>15.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="K97" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L97" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M97" t="n">
-        <v>2.226950354609929</v>
+        <v>2.288461538461538</v>
       </c>
       <c r="N97" t="n">
         <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>6.815602836879433</v>
+        <v>6.987179487179487</v>
       </c>
     </row>
     <row r="98">
@@ -5418,43 +5418,43 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.3333332962963004</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04787234017089181</v>
+        <v>0.05911330020141232</v>
       </c>
       <c r="G98" t="n">
-        <v>13.42857142857143</v>
+        <v>15.61538461538461</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.3054187192118227</v>
       </c>
       <c r="I98" t="n">
-        <v>5.47355623100304</v>
+        <v>6.368321333838575</v>
       </c>
       <c r="J98" t="n">
-        <v>13.42857142857143</v>
+        <v>15.61538461538461</v>
       </c>
       <c r="K98" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L98" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M98" t="n">
-        <v>2.047872340425532</v>
+        <v>2.133004926108375</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>6.409574468085107</v>
+        <v>6.669950738916256</v>
       </c>
     </row>
     <row r="99">
@@ -5469,43 +5469,43 @@
         </is>
       </c>
       <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="n">
         <v>1</v>
       </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
       <c r="E99" t="n">
-        <v>-0.3333332222222593</v>
+        <v>0.599999880000024</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0194805193540226</v>
+        <v>0.03225806430801249</v>
       </c>
       <c r="G99" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3612903225806451</v>
       </c>
       <c r="I99" t="n">
-        <v>5.750649350649351</v>
+        <v>6.344516129032258</v>
       </c>
       <c r="J99" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="K99" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L99" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M99" t="n">
-        <v>2.285714285714286</v>
+        <v>2.251612903225806</v>
       </c>
       <c r="N99" t="n">
         <v>4</v>
       </c>
       <c r="O99" t="n">
-        <v>7.090909090909091</v>
+        <v>6.935483870967742</v>
       </c>
     </row>
     <row r="100">
@@ -5520,43 +5520,43 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>0.142857132653062</v>
+        <v>0.4999999583333368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06140350850261619</v>
+        <v>0.05084745741166331</v>
       </c>
       <c r="G100" t="n">
-        <v>15.2</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="H100" t="n">
-        <v>0.412280701754386</v>
+        <v>0.3855932203389831</v>
       </c>
       <c r="I100" t="n">
-        <v>6.244912280701755</v>
+        <v>6.897094430992737</v>
       </c>
       <c r="J100" t="n">
-        <v>15.2</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="K100" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L100" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M100" t="n">
-        <v>2.486842105263158</v>
+        <v>2.415254237288135</v>
       </c>
       <c r="N100" t="n">
         <v>4</v>
       </c>
       <c r="O100" t="n">
-        <v>7.521929824561403</v>
+        <v>7.36864406779661</v>
       </c>
     </row>
     <row r="101">
@@ -5571,43 +5571,43 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F101" t="n">
-        <v>0.03333333314814815</v>
+        <v>0.02469135787227557</v>
       </c>
       <c r="G101" t="n">
-        <v>10.58823529411765</v>
+        <v>9.529411764705882</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I101" t="n">
-        <v>4.364183006535948</v>
+        <v>3.930283224400871</v>
       </c>
       <c r="J101" t="n">
-        <v>10.58823529411765</v>
+        <v>9.529411764705882</v>
       </c>
       <c r="K101" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L101" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M101" t="n">
-        <v>2.194444444444445</v>
+        <v>2.160493827160494</v>
       </c>
       <c r="N101" t="n">
         <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>6.883333333333334</v>
+        <v>6.746913580246914</v>
       </c>
     </row>
     <row r="102">
@@ -5622,43 +5622,43 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2499999687500039</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03587443930101148</v>
+        <v>0.03940886680094154</v>
       </c>
       <c r="G102" t="n">
-        <v>13.9375</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3273542600896861</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I102" t="n">
-        <v>5.705941704035875</v>
+        <v>4.625396825396826</v>
       </c>
       <c r="J102" t="n">
-        <v>13.9375</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="K102" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L102" t="n">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="M102" t="n">
-        <v>2.179372197309417</v>
+        <v>2.108374384236453</v>
       </c>
       <c r="N102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O102" t="n">
-        <v>6.484304932735426</v>
+        <v>6.241379310344827</v>
       </c>
     </row>
     <row r="103">
@@ -5673,43 +5673,43 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.199999960000008</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04201680636960667</v>
+        <v>0.01960784294502115</v>
       </c>
       <c r="G103" t="n">
-        <v>19.83333333333333</v>
+        <v>17</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="I103" t="n">
-        <v>8.074509803921568</v>
+        <v>6.937254901960785</v>
       </c>
       <c r="J103" t="n">
-        <v>19.83333333333333</v>
+        <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L103" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M103" t="n">
-        <v>2.19327731092437</v>
+        <v>2.196078431372549</v>
       </c>
       <c r="N103" t="n">
         <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>6.80672268907563</v>
+        <v>7.03921568627451</v>
       </c>
     </row>
     <row r="104">
@@ -5724,43 +5724,43 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0.599999940000006</v>
+        <v>0.599999880000024</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0505050502499745</v>
+        <v>0.02747252732157952</v>
       </c>
       <c r="G104" t="n">
-        <v>15.23076923076923</v>
+        <v>13</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.3351648351648351</v>
       </c>
       <c r="I104" t="n">
-        <v>6.21958041958042</v>
+        <v>5.334065934065935</v>
       </c>
       <c r="J104" t="n">
-        <v>15.23076923076923</v>
+        <v>13</v>
       </c>
       <c r="K104" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L104" t="n">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="M104" t="n">
-        <v>2.252525252525253</v>
+        <v>2.318681318681319</v>
       </c>
       <c r="N104" t="n">
         <v>7</v>
       </c>
       <c r="O104" t="n">
-        <v>6.661616161616162</v>
+        <v>6.802197802197802</v>
       </c>
     </row>
     <row r="105">
@@ -5826,43 +5826,43 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8181817809917372</v>
+        <v>0.7894736426592819</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06128133687665366</v>
+        <v>0.0539772725739282</v>
       </c>
       <c r="G106" t="n">
-        <v>11.58064516129032</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3259052924791087</v>
+        <v>0.3267045454545455</v>
       </c>
       <c r="I106" t="n">
-        <v>4.762620181507772</v>
+        <v>4.824015151515152</v>
       </c>
       <c r="J106" t="n">
-        <v>11.58064516129032</v>
+        <v>11.73333333333333</v>
       </c>
       <c r="K106" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L106" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M106" t="n">
-        <v>2.167130919220056</v>
+        <v>2.178977272727273</v>
       </c>
       <c r="N106" t="n">
         <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>6.704735376044568</v>
+        <v>6.738636363636363</v>
       </c>
     </row>
     <row r="107">
@@ -5877,43 +5877,43 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7999999200000081</v>
+        <v>0.99999990000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04504504484213944</v>
+        <v>0.04524886857353453</v>
       </c>
       <c r="G107" t="n">
-        <v>14.8</v>
+        <v>13.8125</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2387387387387387</v>
+        <v>0.2443438914027149</v>
       </c>
       <c r="I107" t="n">
-        <v>6.015495495495497</v>
+        <v>5.622737556561086</v>
       </c>
       <c r="J107" t="n">
-        <v>14.8</v>
+        <v>13.8125</v>
       </c>
       <c r="K107" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L107" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M107" t="n">
-        <v>1.950450450450451</v>
+        <v>1.97737556561086</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
       </c>
       <c r="O107" t="n">
-        <v>6.09009009009009</v>
+        <v>6.131221719457014</v>
       </c>
     </row>
     <row r="108">
@@ -5928,43 +5928,43 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.4999998750000312</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01785714277742347</v>
+        <v>0.03404255304662743</v>
       </c>
       <c r="G108" t="n">
-        <v>13.17647058823529</v>
+        <v>12.36842105263158</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3080357142857143</v>
+        <v>0.2936170212765957</v>
       </c>
       <c r="I108" t="n">
-        <v>5.393802521008404</v>
+        <v>5.06481522956327</v>
       </c>
       <c r="J108" t="n">
-        <v>13.17647058823529</v>
+        <v>12.36842105263158</v>
       </c>
       <c r="K108" t="n">
         <v>69</v>
       </c>
       <c r="L108" t="n">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M108" t="n">
-        <v>2.066964285714286</v>
+        <v>2.068085106382979</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>6.285714285714286</v>
+        <v>6.331914893617022</v>
       </c>
     </row>
     <row r="109">
@@ -5979,43 +5979,43 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.199999980000002</v>
+        <v>0.99999980000004</v>
       </c>
       <c r="F109" t="n">
-        <v>0.07299270019713358</v>
+        <v>0.04464285674426021</v>
       </c>
       <c r="G109" t="n">
-        <v>17.125</v>
+        <v>14</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3503649635036497</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="I109" t="n">
-        <v>6.990145985401461</v>
+        <v>5.717857142857143</v>
       </c>
       <c r="J109" t="n">
-        <v>17.125</v>
+        <v>14</v>
       </c>
       <c r="K109" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L109" t="n">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="M109" t="n">
-        <v>2.284671532846716</v>
+        <v>2.1875</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>6.810218978102189</v>
+        <v>6.553571428571429</v>
       </c>
     </row>
     <row r="110">
@@ -6030,43 +6030,43 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
         <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4285713979591859</v>
+        <v>0.3846153550295881</v>
       </c>
       <c r="F110" t="n">
-        <v>0.06896551690164771</v>
+        <v>0.07027026989043098</v>
       </c>
       <c r="G110" t="n">
-        <v>10.15</v>
+        <v>8.043478260869565</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2108108108108108</v>
       </c>
       <c r="I110" t="n">
-        <v>4.156551724137931</v>
+        <v>3.301715628672151</v>
       </c>
       <c r="J110" t="n">
-        <v>10.15</v>
+        <v>8.043478260869565</v>
       </c>
       <c r="K110" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L110" t="n">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="M110" t="n">
-        <v>2.083743842364532</v>
+        <v>2.005405405405405</v>
       </c>
       <c r="N110" t="n">
         <v>8</v>
       </c>
       <c r="O110" t="n">
-        <v>6.433497536945813</v>
+        <v>6.335135135135135</v>
       </c>
     </row>
     <row r="111">
@@ -6081,43 +6081,43 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2727272479338866</v>
+        <v>0.3846153550295881</v>
       </c>
       <c r="F111" t="n">
-        <v>0.04932735403889079</v>
+        <v>0.05752212363928264</v>
       </c>
       <c r="G111" t="n">
-        <v>18.58333333333333</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="H111" t="n">
-        <v>0.273542600896861</v>
+        <v>0.3097345132743363</v>
       </c>
       <c r="I111" t="n">
-        <v>7.542750373692077</v>
+        <v>8.342075623491553</v>
       </c>
       <c r="J111" t="n">
-        <v>18.58333333333333</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="K111" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L111" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M111" t="n">
-        <v>2.026905829596413</v>
+        <v>2.097345132743363</v>
       </c>
       <c r="N111" t="n">
         <v>5</v>
       </c>
       <c r="O111" t="n">
-        <v>6.345291479820628</v>
+        <v>6.429203539823009</v>
       </c>
     </row>
     <row r="112">
@@ -6132,43 +6132,43 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4666666355555577</v>
+        <v>0.6249999609375024</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04716981117242198</v>
+        <v>0.05161290305931322</v>
       </c>
       <c r="G112" t="n">
-        <v>17.66666666666667</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="I112" t="n">
-        <v>7.164779874213837</v>
+        <v>7.39089184060721</v>
       </c>
       <c r="J112" t="n">
-        <v>17.66666666666667</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="K112" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L112" t="n">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M112" t="n">
-        <v>2.009433962264151</v>
+        <v>1.987096774193548</v>
       </c>
       <c r="N112" t="n">
         <v>8</v>
       </c>
       <c r="O112" t="n">
-        <v>6.430817610062893</v>
+        <v>6.448387096774193</v>
       </c>
     </row>
     <row r="113">
@@ -6183,43 +6183,43 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.8333332638888947</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03825136591119472</v>
+        <v>0.06417112265149133</v>
       </c>
       <c r="G113" t="n">
-        <v>15.25</v>
+        <v>14.38461538461539</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2677595628415301</v>
+        <v>0.3155080213903743</v>
       </c>
       <c r="I113" t="n">
-        <v>6.207103825136612</v>
+        <v>5.880049362402304</v>
       </c>
       <c r="J113" t="n">
-        <v>15.25</v>
+        <v>14.38461538461539</v>
       </c>
       <c r="K113" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L113" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M113" t="n">
-        <v>2.032786885245902</v>
+        <v>2.112299465240642</v>
       </c>
       <c r="N113" t="n">
         <v>8</v>
       </c>
       <c r="O113" t="n">
-        <v>6.278688524590164</v>
+        <v>6.459893048128342</v>
       </c>
     </row>
     <row r="114">
@@ -6243,34 +6243,34 @@
         <v>0.9999999411764739</v>
       </c>
       <c r="F114" t="n">
-        <v>0.07870370333933471</v>
+        <v>0.08415841542495835</v>
       </c>
       <c r="G114" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="I114" t="n">
-        <v>9.724074074074075</v>
+        <v>10.21881188118812</v>
       </c>
       <c r="J114" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="K114" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L114" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M114" t="n">
-        <v>2.185185185185185</v>
+        <v>2.183168316831683</v>
       </c>
       <c r="N114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O114" t="n">
-        <v>6.675925925925926</v>
+        <v>6.608910891089109</v>
       </c>
     </row>
     <row r="115">
@@ -6285,43 +6285,43 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4999998750000312</v>
+        <v>0.9999990000010001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.04123711297693698</v>
+        <v>0.0101010099989797</v>
       </c>
       <c r="G115" t="n">
-        <v>19.4</v>
+        <v>24.75</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3402061855670103</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I115" t="n">
-        <v>7.896082474226803</v>
+        <v>10.02121212121212</v>
       </c>
       <c r="J115" t="n">
-        <v>19.4</v>
+        <v>24.75</v>
       </c>
       <c r="K115" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L115" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M115" t="n">
-        <v>2.257731958762887</v>
+        <v>2.171717171717172</v>
       </c>
       <c r="N115" t="n">
         <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>7.072164948453608</v>
+        <v>6.727272727272728</v>
       </c>
     </row>
     <row r="116">
@@ -6336,43 +6336,43 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.7777776913580343</v>
       </c>
       <c r="F116" t="n">
-        <v>0.04430379718795065</v>
+        <v>0.05555555521262003</v>
       </c>
       <c r="G116" t="n">
-        <v>15.8</v>
+        <v>13.5</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3670886075949367</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I116" t="n">
-        <v>6.466835443037976</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="J116" t="n">
-        <v>15.8</v>
+        <v>13.5</v>
       </c>
       <c r="K116" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L116" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M116" t="n">
-        <v>2.436708860759494</v>
+        <v>2.462962962962963</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>7.60126582278481</v>
+        <v>7.635802469135802</v>
       </c>
     </row>
     <row r="117">
@@ -6387,43 +6387,43 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9999996666667778</v>
+        <v>0.99999950000025</v>
       </c>
       <c r="F117" t="n">
-        <v>0.025210083821764</v>
+        <v>0.01818181801652893</v>
       </c>
       <c r="G117" t="n">
-        <v>23.8</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3025210084033613</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="I117" t="n">
-        <v>9.641008403361345</v>
+        <v>7.438787878787878</v>
       </c>
       <c r="J117" t="n">
-        <v>23.8</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="K117" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L117" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M117" t="n">
-        <v>2.134453781512605</v>
+        <v>2.063636363636363</v>
       </c>
       <c r="N117" t="n">
         <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>6.739495798319328</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="118">
@@ -6438,43 +6438,43 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8333332638888947</v>
+        <v>0.99999990000001</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05607476609310857</v>
+        <v>0.04761904739229025</v>
       </c>
       <c r="G118" t="n">
-        <v>16.46153846153846</v>
+        <v>17.5</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3037383177570093</v>
+        <v>0.3</v>
       </c>
       <c r="I118" t="n">
-        <v>6.706110711718188</v>
+        <v>7.120000000000001</v>
       </c>
       <c r="J118" t="n">
-        <v>16.46153846153846</v>
+        <v>17.5</v>
       </c>
       <c r="K118" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L118" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M118" t="n">
-        <v>2.275700934579439</v>
+        <v>2.276190476190476</v>
       </c>
       <c r="N118" t="n">
         <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>7.060747663551401</v>
+        <v>7.071428571428571</v>
       </c>
     </row>
     <row r="119">
@@ -6492,40 +6492,40 @@
         <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9999996666667778</v>
+        <v>0.4999998750000312</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01492537306007277</v>
+        <v>0.02051282040762656</v>
       </c>
       <c r="G119" t="n">
-        <v>13.4</v>
+        <v>12.1875</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I119" t="n">
-        <v>5.503283582089552</v>
+        <v>5.008333333333334</v>
       </c>
       <c r="J119" t="n">
-        <v>13.4</v>
+        <v>12.1875</v>
       </c>
       <c r="K119" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L119" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M119" t="n">
-        <v>2.293532338308458</v>
+        <v>2.225641025641026</v>
       </c>
       <c r="N119" t="n">
         <v>3</v>
       </c>
       <c r="O119" t="n">
-        <v>6.930348258706467</v>
+        <v>6.835897435897436</v>
       </c>
     </row>
     <row r="120">
@@ -6591,43 +6591,43 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.99999980000004</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04950495000490149</v>
+        <v>0.03703703669410151</v>
       </c>
       <c r="G121" t="n">
-        <v>14.42857142857143</v>
+        <v>13.5</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3267326732673267</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="I121" t="n">
-        <v>5.902121640735502</v>
+        <v>5.52962962962963</v>
       </c>
       <c r="J121" t="n">
-        <v>14.42857142857143</v>
+        <v>13.5</v>
       </c>
       <c r="K121" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L121" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M121" t="n">
-        <v>2.148514851485149</v>
+        <v>2.12037037037037</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>6.663366336633663</v>
+        <v>6.62962962962963</v>
       </c>
     </row>
     <row r="122">
@@ -6642,43 +6642,43 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.9999998750000157</v>
       </c>
       <c r="F122" t="n">
-        <v>0.06796116438872656</v>
+        <v>0.07407407338820303</v>
       </c>
       <c r="G122" t="n">
-        <v>17.16666666666667</v>
+        <v>12</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3689320388349515</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="I122" t="n">
-        <v>7.014239482200648</v>
+        <v>4.948148148148149</v>
       </c>
       <c r="J122" t="n">
-        <v>17.16666666666667</v>
+        <v>12</v>
       </c>
       <c r="K122" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L122" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M122" t="n">
-        <v>2.252427184466019</v>
+        <v>2.287037037037037</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>6.980582524271845</v>
+        <v>7.194444444444445</v>
       </c>
     </row>
     <row r="123">
@@ -6693,43 +6693,43 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0952380941043084</v>
+        <v>0.08510638207333636</v>
       </c>
       <c r="G123" t="n">
-        <v>28</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="I123" t="n">
-        <v>11.2952380952381</v>
+        <v>12.65673758865248</v>
       </c>
       <c r="J123" t="n">
-        <v>28</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L123" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M123" t="n">
-        <v>1.928571428571429</v>
+        <v>2.180851063829787</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>6.345238095238095</v>
+        <v>6.648936170212766</v>
       </c>
     </row>
     <row r="124">
@@ -6744,43 +6744,43 @@
         </is>
       </c>
       <c r="C124" t="n">
+        <v>9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4999999583333368</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1379310328973445</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.3908045977011494</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.50632183908046</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="K124" t="n">
+        <v>34</v>
+      </c>
+      <c r="L124" t="n">
+        <v>87</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.275862068965517</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
         <v>7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.7499999062500118</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.07766990215854463</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.875</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.3786407766990291</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.301456310679612</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12.875</v>
-      </c>
-      <c r="K124" t="n">
-        <v>39</v>
-      </c>
-      <c r="L124" t="n">
-        <v>103</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2.223300970873786</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="n">
-        <v>6.854368932038835</v>
       </c>
     </row>
     <row r="125">
@@ -6795,43 +6795,43 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0.199999960000008</v>
+        <v>0.6666665555555741</v>
       </c>
       <c r="F125" t="n">
-        <v>0.05319148879583523</v>
+        <v>0.06185566946540547</v>
       </c>
       <c r="G125" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="H125" t="n">
-        <v>0.351063829787234</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="I125" t="n">
-        <v>7.660425531914894</v>
+        <v>7.879587628865979</v>
       </c>
       <c r="J125" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="K125" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L125" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M125" t="n">
-        <v>2.223404255319149</v>
+        <v>2.103092783505155</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>7.063829787234043</v>
+        <v>6.742268041237113</v>
       </c>
     </row>
     <row r="126">
@@ -6846,43 +6846,43 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7777776913580343</v>
+        <v>0.9999998888889013</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0459183671126614</v>
+        <v>0.04687499975585938</v>
       </c>
       <c r="G126" t="n">
-        <v>11.52941176470588</v>
+        <v>12.8</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3010204081632653</v>
+        <v>0.3072916666666667</v>
       </c>
       <c r="I126" t="n">
-        <v>4.73217286914766</v>
+        <v>5.242916666666667</v>
       </c>
       <c r="J126" t="n">
-        <v>11.52941176470588</v>
+        <v>12.8</v>
       </c>
       <c r="K126" t="n">
         <v>59</v>
       </c>
       <c r="L126" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M126" t="n">
-        <v>2.198979591836735</v>
+        <v>2.1875</v>
       </c>
       <c r="N126" t="n">
         <v>7</v>
       </c>
       <c r="O126" t="n">
-        <v>6.831632653061225</v>
+        <v>6.807291666666667</v>
       </c>
     </row>
     <row r="127">
@@ -6897,43 +6897,43 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4999998750000312</v>
+        <v>0.99999950000025</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03174603149407912</v>
+        <v>0.01639344248857834</v>
       </c>
       <c r="G127" t="n">
-        <v>15.75</v>
+        <v>15.25</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="I127" t="n">
-        <v>6.414285714285715</v>
+        <v>6.231147540983606</v>
       </c>
       <c r="J127" t="n">
-        <v>15.75</v>
+        <v>15.25</v>
       </c>
       <c r="K127" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L127" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M127" t="n">
-        <v>2.198412698412699</v>
+        <v>2.278688524590164</v>
       </c>
       <c r="N127" t="n">
         <v>4</v>
       </c>
       <c r="O127" t="n">
-        <v>6.595238095238095</v>
+        <v>6.69672131147541</v>
       </c>
     </row>
     <row r="128">
@@ -6948,43 +6948,43 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
         <v>8</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.4545454132231443</v>
+        <v>-0.142857132653062</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04029304014544674</v>
+        <v>0.05147058804606402</v>
       </c>
       <c r="G128" t="n">
-        <v>17.0625</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3566176470588235</v>
       </c>
       <c r="I128" t="n">
-        <v>6.968589743589743</v>
+        <v>7.395980392156862</v>
       </c>
       <c r="J128" t="n">
-        <v>17.0625</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="K128" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L128" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M128" t="n">
-        <v>2.3003663003663</v>
+        <v>2.294117647058823</v>
       </c>
       <c r="N128" t="n">
         <v>3</v>
       </c>
       <c r="O128" t="n">
-        <v>6.714285714285714</v>
+        <v>6.794117647058823</v>
       </c>
     </row>
     <row r="129">
@@ -7002,40 +7002,40 @@
         <v>12</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4999999687500019</v>
+        <v>0.5999999600000027</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1006289301847237</v>
+        <v>0.08522727224302687</v>
       </c>
       <c r="G129" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3144654088050314</v>
+        <v>0.25</v>
       </c>
       <c r="I129" t="n">
-        <v>6.485786163522014</v>
+        <v>6.5</v>
       </c>
       <c r="J129" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="K129" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L129" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M129" t="n">
-        <v>2.213836477987421</v>
+        <v>2.113636363636364</v>
       </c>
       <c r="N129" t="n">
         <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>6.716981132075472</v>
+        <v>6.465909090909091</v>
       </c>
     </row>
     <row r="130">
@@ -7050,43 +7050,43 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6249999609375024</v>
+        <v>0.7499999531250029</v>
       </c>
       <c r="F130" t="n">
-        <v>0.06808510609325487</v>
+        <v>0.07079645986373248</v>
       </c>
       <c r="G130" t="n">
-        <v>13.82352941176471</v>
+        <v>14.125</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3659574468085106</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="I130" t="n">
-        <v>5.675794743429287</v>
+        <v>5.798672566371682</v>
       </c>
       <c r="J130" t="n">
-        <v>13.82352941176471</v>
+        <v>14.125</v>
       </c>
       <c r="K130" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L130" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M130" t="n">
-        <v>2.382978723404255</v>
+        <v>2.393805309734513</v>
       </c>
       <c r="N130" t="n">
         <v>12</v>
       </c>
       <c r="O130" t="n">
-        <v>7.148936170212766</v>
+        <v>7.163716814159292</v>
       </c>
     </row>
     <row r="131">
@@ -7101,43 +7101,43 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4999999583333368</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="F131" t="n">
-        <v>0.06249999967447917</v>
+        <v>0.07575757537496174</v>
       </c>
       <c r="G131" t="n">
-        <v>14.76923076923077</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="H131" t="n">
-        <v>0.328125</v>
+        <v>0.3383838383838384</v>
       </c>
       <c r="I131" t="n">
-        <v>6.038942307692309</v>
+        <v>5.792496392496393</v>
       </c>
       <c r="J131" t="n">
-        <v>14.76923076923077</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="K131" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L131" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M131" t="n">
-        <v>2.291666666666667</v>
+        <v>2.287878787878788</v>
       </c>
       <c r="N131" t="n">
         <v>7</v>
       </c>
       <c r="O131" t="n">
-        <v>6.96875</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -7152,43 +7152,43 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.9999998571428775</v>
       </c>
       <c r="F132" t="n">
-        <v>0.02764976945783516</v>
+        <v>0.03517587922022172</v>
       </c>
       <c r="G132" t="n">
-        <v>13.5625</v>
+        <v>12.4375</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3768844221105528</v>
       </c>
       <c r="I132" t="n">
-        <v>5.566935483870968</v>
+        <v>5.125753768844222</v>
       </c>
       <c r="J132" t="n">
-        <v>13.5625</v>
+        <v>12.4375</v>
       </c>
       <c r="K132" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L132" t="n">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M132" t="n">
-        <v>2.276497695852535</v>
+        <v>2.291457286432161</v>
       </c>
       <c r="N132" t="n">
         <v>1</v>
       </c>
       <c r="O132" t="n">
-        <v>6.866359447004609</v>
+        <v>6.844221105527638</v>
       </c>
     </row>
     <row r="133">
@@ -7206,40 +7206,40 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4999999375000079</v>
+        <v>0.199999980000002</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04188481653463447</v>
+        <v>0.04878048756692445</v>
       </c>
       <c r="G133" t="n">
-        <v>14.69230769230769</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3612565445026178</v>
+        <v>0.3463414634146341</v>
       </c>
       <c r="I133" t="n">
-        <v>6.021425694724124</v>
+        <v>5.605203252032521</v>
       </c>
       <c r="J133" t="n">
-        <v>14.69230769230769</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="K133" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L133" t="n">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M133" t="n">
-        <v>2.246073298429319</v>
+        <v>2.214634146341464</v>
       </c>
       <c r="N133" t="n">
         <v>8</v>
       </c>
       <c r="O133" t="n">
-        <v>6.973821989528796</v>
+        <v>6.829268292682927</v>
       </c>
     </row>
     <row r="134">
@@ -7257,40 +7257,40 @@
         <v>3</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9999996666667778</v>
+        <v>0.4999998750000312</v>
       </c>
       <c r="F134" t="n">
-        <v>0.02380952362055934</v>
+        <v>0.02739726008632014</v>
       </c>
       <c r="G134" t="n">
-        <v>12.6</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="I134" t="n">
-        <v>5.151111111111112</v>
+        <v>6.634094368340944</v>
       </c>
       <c r="J134" t="n">
-        <v>12.6</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="K134" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="L134" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="M134" t="n">
-        <v>2.03968253968254</v>
+        <v>2.273972602739726</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>6.261904761904762</v>
+        <v>6.835616438356165</v>
       </c>
     </row>
     <row r="135">
@@ -7308,40 +7308,40 @@
         <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F135" t="n">
-        <v>0.04838709638397503</v>
+        <v>0.03623188379542113</v>
       </c>
       <c r="G135" t="n">
-        <v>24.8</v>
+        <v>27.6</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.2971014492753623</v>
       </c>
       <c r="I135" t="n">
-        <v>10.05870967741936</v>
+        <v>11.15884057971015</v>
       </c>
       <c r="J135" t="n">
-        <v>24.8</v>
+        <v>27.6</v>
       </c>
       <c r="K135" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L135" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M135" t="n">
-        <v>2.137096774193548</v>
+        <v>2.021739130434783</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>6.629032258064516</v>
+        <v>6.478260869565218</v>
       </c>
     </row>
     <row r="136">
@@ -7356,43 +7356,43 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.99999980000004</v>
       </c>
       <c r="F136" t="n">
-        <v>0.06140350823330256</v>
+        <v>0.04310344790428063</v>
       </c>
       <c r="G136" t="n">
-        <v>10.36363636363636</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="H136" t="n">
-        <v>0.412280701754386</v>
+        <v>0.3189655172413793</v>
       </c>
       <c r="I136" t="n">
-        <v>4.3103668261563</v>
+        <v>5.283141762452107</v>
       </c>
       <c r="J136" t="n">
-        <v>10.36363636363636</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="K136" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L136" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M136" t="n">
-        <v>2.412280701754386</v>
+        <v>2.181034482758621</v>
       </c>
       <c r="N136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>7.12280701754386</v>
+        <v>6.53448275862069</v>
       </c>
     </row>
     <row r="137">
@@ -7407,43 +7407,43 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.9999997500000625</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05263157848568791</v>
+        <v>0.03149606274412549</v>
       </c>
       <c r="G137" t="n">
-        <v>14.25</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.3385826771653543</v>
       </c>
       <c r="I137" t="n">
-        <v>5.840350877192982</v>
+        <v>8.602099737532809</v>
       </c>
       <c r="J137" t="n">
-        <v>14.25</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="K137" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L137" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M137" t="n">
-        <v>2.210526315789474</v>
+        <v>2.204724409448819</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>6.798245614035087</v>
+        <v>6.724409448818897</v>
       </c>
     </row>
     <row r="138">
@@ -7458,43 +7458,43 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.4999998750000312</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05172413748513675</v>
+        <v>0.03252032493885915</v>
       </c>
       <c r="G138" t="n">
-        <v>12.88888888888889</v>
+        <v>12.3</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="I138" t="n">
-        <v>5.290038314176246</v>
+        <v>5.050081300813009</v>
       </c>
       <c r="J138" t="n">
-        <v>12.88888888888889</v>
+        <v>12.3</v>
       </c>
       <c r="K138" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L138" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M138" t="n">
-        <v>2.293103448275862</v>
+        <v>2.24390243902439</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>6.982758620689655</v>
+        <v>6.788617886178862</v>
       </c>
     </row>
     <row r="139">
@@ -7509,43 +7509,43 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.333333277777787</v>
+        <v>0.9999998571428775</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05357142809311225</v>
+        <v>0.06034482706599287</v>
       </c>
       <c r="G139" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="I139" t="n">
-        <v>11.34285714285714</v>
+        <v>11.73103448275862</v>
       </c>
       <c r="J139" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K139" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L139" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M139" t="n">
-        <v>2.267857142857143</v>
+        <v>2.21551724137931</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>6.821428571428571</v>
+        <v>6.78448275862069</v>
       </c>
     </row>
     <row r="140">
@@ -7563,40 +7563,40 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.4999999375000079</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05982905931770035</v>
+        <v>0.07079645955047381</v>
       </c>
       <c r="G140" t="n">
-        <v>23.4</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="I140" t="n">
-        <v>9.486495726495725</v>
+        <v>7.682005899705015</v>
       </c>
       <c r="J140" t="n">
-        <v>23.4</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="K140" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L140" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M140" t="n">
-        <v>2.188034188034188</v>
+        <v>2.300884955752212</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>6.581196581196581</v>
+        <v>6.814159292035399</v>
       </c>
     </row>
     <row r="141">
@@ -7611,43 +7611,43 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>0.333333277777787</v>
+        <v>0.4285713673469475</v>
       </c>
       <c r="F141" t="n">
-        <v>0.03703703680841335</v>
+        <v>0.04320987627648225</v>
       </c>
       <c r="G141" t="n">
-        <v>11.57142857142857</v>
+        <v>12.46153846153846</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2530864197530864</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="I141" t="n">
-        <v>4.729805996472663</v>
+        <v>5.088319088319089</v>
       </c>
       <c r="J141" t="n">
-        <v>11.57142857142857</v>
+        <v>12.46153846153846</v>
       </c>
       <c r="K141" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L141" t="n">
         <v>162</v>
       </c>
       <c r="M141" t="n">
-        <v>1.925925925925926</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="N141" t="n">
         <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>6</v>
+        <v>5.950617283950617</v>
       </c>
     </row>
     <row r="142">
@@ -7662,43 +7662,43 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1538461479289943</v>
+        <v>0.09090908677685969</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04735883415781633</v>
+        <v>0.03963963956821687</v>
       </c>
       <c r="G142" t="n">
-        <v>12.2</v>
+        <v>11.80851063829787</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2805100182149363</v>
+        <v>0.2900900900900901</v>
       </c>
       <c r="I142" t="n">
-        <v>4.992204007285975</v>
+        <v>4.839440291355185</v>
       </c>
       <c r="J142" t="n">
-        <v>12.2</v>
+        <v>11.80851063829787</v>
       </c>
       <c r="K142" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="L142" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="M142" t="n">
-        <v>2.160291438979963</v>
+        <v>2.174774774774775</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
       </c>
       <c r="O142" t="n">
-        <v>6.597449908925319</v>
+        <v>6.623423423423423</v>
       </c>
     </row>
     <row r="143">
@@ -7713,43 +7713,43 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>0.1764705778546719</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04953560356180928</v>
+        <v>0.05214723910384283</v>
       </c>
       <c r="G143" t="n">
-        <v>15.38095238095238</v>
+        <v>14.17391304347826</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3962848297213623</v>
+        <v>0.4079754601226994</v>
       </c>
       <c r="I143" t="n">
-        <v>6.310894884269498</v>
+        <v>5.832755401440385</v>
       </c>
       <c r="J143" t="n">
-        <v>15.38095238095238</v>
+        <v>14.17391304347826</v>
       </c>
       <c r="K143" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L143" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M143" t="n">
-        <v>2.365325077399381</v>
+        <v>2.365030674846626</v>
       </c>
       <c r="N143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O143" t="n">
-        <v>6.820433436532507</v>
+        <v>6.898773006134969</v>
       </c>
     </row>
     <row r="144">
@@ -7764,43 +7764,43 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1578947285318564</v>
+        <v>0.05263157617728546</v>
       </c>
       <c r="F144" t="n">
-        <v>0.03486238525713324</v>
+        <v>0.03405017915044771</v>
       </c>
       <c r="G144" t="n">
-        <v>15.13888888888889</v>
+        <v>17.4375</v>
       </c>
       <c r="H144" t="n">
-        <v>0.344954128440367</v>
+        <v>0.3315412186379929</v>
       </c>
       <c r="I144" t="n">
-        <v>6.193537206931703</v>
+        <v>7.107616487455198</v>
       </c>
       <c r="J144" t="n">
-        <v>15.13888888888889</v>
+        <v>17.4375</v>
       </c>
       <c r="K144" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L144" t="n">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="M144" t="n">
-        <v>2.260550458715596</v>
+        <v>2.231182795698925</v>
       </c>
       <c r="N144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O144" t="n">
-        <v>6.570642201834862</v>
+        <v>6.519713261648746</v>
       </c>
     </row>
     <row r="145">
@@ -7815,43 +7815,43 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D145" t="n">
         <v>19</v>
       </c>
       <c r="E145" t="n">
-        <v>0.04999999875000003</v>
+        <v>0.07317072992266513</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05115089507525461</v>
+        <v>0.05170239589949256</v>
       </c>
       <c r="G145" t="n">
-        <v>12.81967213114754</v>
+        <v>13.67241379310345</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3081841432225064</v>
+        <v>0.3064312736443884</v>
       </c>
       <c r="I145" t="n">
-        <v>5.25114250974802</v>
+        <v>5.591538026699135</v>
       </c>
       <c r="J145" t="n">
-        <v>12.81967213114754</v>
+        <v>13.67241379310345</v>
       </c>
       <c r="K145" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L145" t="n">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="M145" t="n">
-        <v>2.147058823529412</v>
+        <v>2.1437578814628</v>
       </c>
       <c r="N145" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O145" t="n">
-        <v>6.461636828644501</v>
+        <v>6.452711223203027</v>
       </c>
     </row>
     <row r="146">
@@ -7869,40 +7869,40 @@
         <v>7</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>0.07692307100591762</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0866666660888889</v>
+        <v>0.09271523117407132</v>
       </c>
       <c r="G146" t="n">
-        <v>12.5</v>
+        <v>11.61538461538461</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3133333333333334</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="I146" t="n">
-        <v>5.125333333333334</v>
+        <v>4.770657157412124</v>
       </c>
       <c r="J146" t="n">
-        <v>12.5</v>
+        <v>11.61538461538461</v>
       </c>
       <c r="K146" t="n">
         <v>47</v>
       </c>
       <c r="L146" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M146" t="n">
-        <v>2.213333333333333</v>
+        <v>2.298013245033113</v>
       </c>
       <c r="N146" t="n">
         <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>6.646666666666667</v>
+        <v>6.821192052980132</v>
       </c>
     </row>
     <row r="147">
@@ -7968,43 +7968,43 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.4999998750000312</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03636363603305785</v>
+        <v>0.03478260839319471</v>
       </c>
       <c r="G148" t="n">
-        <v>12.22222222222222</v>
+        <v>14.375</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="I148" t="n">
-        <v>5.034343434343434</v>
+        <v>5.899565217391305</v>
       </c>
       <c r="J148" t="n">
-        <v>12.22222222222222</v>
+        <v>14.375</v>
       </c>
       <c r="K148" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L148" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M148" t="n">
-        <v>2.190909090909091</v>
+        <v>2.2</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>6.763636363636364</v>
+        <v>6.573913043478261</v>
       </c>
     </row>
   </sheetData>
